--- a/Analysis_Worksheets/cryptopunks.xlsx
+++ b/Analysis_Worksheets/cryptopunks.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cryptopunks\AnalysisWorksheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Analysis_of_Cryptopunks_Top_60\Analysis_Worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A01751E-3140-4422-94FA-AE0CCC2005A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F35B62-2772-4E88-9E71-26A56EA8ACE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_xltb_storage_" sheetId="5" state="veryHidden" r:id="rId1"/>
     <sheet name="Data viz" sheetId="4" r:id="rId2"/>
-    <sheet name="cryptopunks" sheetId="1" r:id="rId3"/>
-    <sheet name="attributes" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="cryptopunks" sheetId="1" r:id="rId4"/>
+    <sheet name="attributes" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">attributes!$B$1:$B$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">attributes!$B$1:$B$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1094,6 +1095,12 @@
     <t>XLToolbox.Export.Models.BatchExportSettings</t>
   </si>
   <si>
+    <t>export_path</t>
+  </si>
+  <si>
+    <t>cheapest (Ξ)</t>
+  </si>
+  <si>
     <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;_x000D_
 &lt;BatchExportSettings xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"&gt;_x000D_
   &lt;Preset&gt;_x000D_
@@ -1109,18 +1116,12 @@
   &lt;Scope&gt;ActiveSheet&lt;/Scope&gt;_x000D_
   &lt;Objects&gt;ChartsAndShapes&lt;/Objects&gt;_x000D_
   &lt;Layout&gt;SheetLayout&lt;/Layout&gt;_x000D_
-  &lt;Path&gt;C:\cryptopunks&lt;/Path&gt;_x000D_
-  &lt;Screenshot&gt;false&lt;/Screenshot&gt;_x000D_
+  &lt;Path&gt;C:\Users\DELL\OneDrive\Documents&lt;/Path&gt;_x000D_
+  &lt;Screenshot&gt;true&lt;/Screenshot&gt;_x000D_
 &lt;/BatchExportSettings&gt;</t>
   </si>
   <si>
-    <t>export_path</t>
-  </si>
-  <si>
-    <t>C:\cryptopunks\data-viz.png</t>
-  </si>
-  <si>
-    <t>cheapest (Ξ)</t>
+    <t>C:\Analysis_of_Cryptopunks_Top_60\data-viz.png</t>
   </si>
 </sst>
 </file>
@@ -2480,7 +2481,7 @@
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1332142416"/>
@@ -5750,13 +5751,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4581071</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>2548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8373421</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>178377</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5788,13 +5789,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4577195</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>11546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8367995</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>2964</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5826,13 +5827,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219364</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>14942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1824182</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>14942</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5848,7 +5849,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="219364" y="2523192"/>
+          <a:off x="219364" y="2300942"/>
           <a:ext cx="1604818" cy="1143000"/>
           <a:chOff x="6021294" y="11586883"/>
           <a:chExt cx="1837850" cy="1234004"/>
@@ -5982,193 +5983,17 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2035176</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>96</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89174C6C-B9BA-F7B9-5118-4106BB2585C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="5271" r="6626"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="177800" y="719585"/>
-          <a:ext cx="1857376" cy="1413460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2216150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2216150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1339850</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Connector 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D69CBB-9ECA-ECF0-4FAE-CC3CD125FF57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2216150" y="425450"/>
-          <a:ext cx="0" cy="1276350"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2273300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>8534400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1308100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="TextBox 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E14DF7F-41AB-B6C1-E14B-722E2F3C94D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2273300" y="460188"/>
-          <a:ext cx="6261100" cy="1206500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="just"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t>An NFT Collection launched in 2017, Cryptopunks are credited with starting</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" baseline="0"/>
-            <a:t> the NFT Craze of 2021. There are 10,000 CryptoPunks in general and are classified based on punk types: Ape, Alien, Female, Male and Zombie; Attributes they possess and Attribute Counts . This project was carried out to analyse if the price a punk is sold at depends on rarity of a punk type or attribute count.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2401511</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>7816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4007111</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>8252</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6184,7 +6009,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2401511" y="2516066"/>
+          <a:off x="2401511" y="2293816"/>
           <a:ext cx="1605600" cy="1143436"/>
           <a:chOff x="6021297" y="11586883"/>
           <a:chExt cx="1763059" cy="1135530"/>
@@ -6318,13 +6143,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219728</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>10525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4020657</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>5763</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6333,6 +6158,44 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0AE41E-78E7-4D79-B183-EB59B70DD0B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219392</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4020992</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7485</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="42" name="Chart 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6436C39-2B41-4F2E-8069-E1B52894503B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6355,52 +6218,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>219392</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>10153</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4020992</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>7485</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="42" name="Chart 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6436C39-2B41-4F2E-8069-E1B52894503B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>242454</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>10539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1764467</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>183986</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6416,7 +6241,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="242454" y="3058539"/>
+          <a:off x="242454" y="2868039"/>
           <a:ext cx="1522013" cy="173447"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6465,13 +6290,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2441370</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>176957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3904095</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>180687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6487,8 +6312,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2441370" y="2685207"/>
-          <a:ext cx="1462725" cy="187880"/>
+          <a:off x="2441370" y="2843957"/>
+          <a:ext cx="1462725" cy="194230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6535,1245 +6360,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>335177</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>149001</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>782226</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33093</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="60" name="Group 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A83BDF5-2030-4BA6-A99C-AA29ED28D1F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="335177" y="4371751"/>
-          <a:ext cx="447049" cy="1789092"/>
-          <a:chOff x="359403" y="3916320"/>
-          <a:chExt cx="447049" cy="1721477"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="61" name="Group 60">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9D2334-F845-D9AC-B942-6159DB805F54}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="361156" y="3916320"/>
-            <a:ext cx="444500" cy="339851"/>
-            <a:chOff x="361156" y="3924372"/>
-            <a:chExt cx="444500" cy="341673"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="74" name="Picture 73">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ABC5715-CFF4-EAAE-8394-654979A35186}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="497052" y="3982672"/>
-              <a:ext cx="179519" cy="256329"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="75" name="Rectangle 74">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9B9AEB-2F64-6AE1-007E-388D8D283905}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="361156" y="3924372"/>
-              <a:ext cx="444500" cy="341673"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="62" name="Group 61">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EECC4AB2-E441-7134-F714-5F21897DFEBF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="359403" y="4256171"/>
-            <a:ext cx="444500" cy="345408"/>
-            <a:chOff x="362745" y="4256768"/>
-            <a:chExt cx="444500" cy="345169"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="72" name="Picture 71">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658110B3-D934-DD66-3C62-7CE033927BF2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="508000" y="4288518"/>
-              <a:ext cx="162903" cy="254268"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="73" name="Rectangle 72">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A6A910-D7C9-564A-F257-17BFF99E8F70}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="362745" y="4256768"/>
-              <a:ext cx="444500" cy="345169"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="63" name="Group 62">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1593F1C-49B6-31BA-D473-CB22939A99D1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="360364" y="4602204"/>
-            <a:ext cx="444500" cy="345407"/>
-            <a:chOff x="360364" y="4605904"/>
-            <a:chExt cx="444500" cy="345169"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="70" name="Picture 69">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE50B4D-E1FB-126F-78D7-9E48B5AB5CE8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-              <a:duotone>
-                <a:prstClr val="black"/>
-                <a:srgbClr val="7DA269">
-                  <a:tint val="45000"/>
-                  <a:satMod val="400000"/>
-                </a:srgbClr>
-              </a:duotone>
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="465932" y="4636862"/>
-              <a:ext cx="252000" cy="251546"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="71" name="Rectangle 70">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB064605-AF85-F05E-4BF1-231BB3FCC5F7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="360364" y="4605904"/>
-              <a:ext cx="444500" cy="345169"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="64" name="Group 63">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93810894-7B93-8CB5-73AE-3C9F97FDD384}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="361952" y="4944895"/>
-            <a:ext cx="444500" cy="345408"/>
-            <a:chOff x="361952" y="4955041"/>
-            <a:chExt cx="444500" cy="345168"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="68" name="Picture 67">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{753C836E-EF25-BC72-3732-D5A06C4D8AE7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-              <a:duotone>
-                <a:prstClr val="black"/>
-                <a:srgbClr val="E8D8CA">
-                  <a:tint val="45000"/>
-                  <a:satMod val="400000"/>
-                </a:srgbClr>
-              </a:duotone>
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="487362" y="5007428"/>
-              <a:ext cx="216314" cy="253133"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="69" name="Rectangle 68">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E681DB28-900B-8BB5-C0C0-6164B255F5FF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="361952" y="4955041"/>
-              <a:ext cx="444500" cy="345168"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="65" name="Group 64">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64213C2-4EBA-8C30-D382-2DFADCFEBD1F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="359571" y="5292390"/>
-            <a:ext cx="444500" cy="345407"/>
-            <a:chOff x="359571" y="5292270"/>
-            <a:chExt cx="444500" cy="345169"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="66" name="Picture 65">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FC4A77-2151-4006-6DC9-8A6E35920B29}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
-              <a:duotone>
-                <a:prstClr val="black"/>
-                <a:srgbClr val="C8FBFB">
-                  <a:tint val="45000"/>
-                  <a:satMod val="400000"/>
-                </a:srgbClr>
-              </a:duotone>
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="488950" y="5332753"/>
-              <a:ext cx="234354" cy="253134"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="67" name="Rectangle 66">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BE677F-7587-624C-C780-B802948DB094}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="359571" y="5292270"/>
-              <a:ext cx="444500" cy="345169"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4946221</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>20343</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>8005411</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>30228</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="77" name="Group 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD7AD55-3018-A18B-73A7-069575407410}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4946221" y="5957593"/>
-          <a:ext cx="3059190" cy="390885"/>
-          <a:chOff x="9163969" y="4272977"/>
-          <a:chExt cx="3057219" cy="374320"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="35" name="Group 34">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647D2041-0D06-8036-DAAA-8C4CC3BCA17C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="11772790" y="4274122"/>
-            <a:ext cx="448398" cy="336133"/>
-            <a:chOff x="361156" y="3924372"/>
-            <a:chExt cx="444500" cy="341673"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="23" name="Picture 22">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4099F02-F925-50AC-BC5D-C32F099C3B76}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="497052" y="3982672"/>
-              <a:ext cx="179519" cy="256329"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="30" name="Rectangle 29">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53AD360-D2C3-2068-BFEE-B3D7449B92B7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="361156" y="3924372"/>
-              <a:ext cx="444500" cy="341673"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="36" name="Group 35">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20028502-B767-F73E-EF26-FD9A7F9C9DAB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="11136036" y="4305586"/>
-            <a:ext cx="444500" cy="341711"/>
-            <a:chOff x="362745" y="4256768"/>
-            <a:chExt cx="444500" cy="345169"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="29" name="Picture 28">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3F4A10-6AC7-E89F-C298-A5CDC2BF5ED4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="508000" y="4288518"/>
-              <a:ext cx="162903" cy="254268"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="31" name="Rectangle 30">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362ABB6C-2E52-4554-A325-56B8629D6FAD}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="362745" y="4256768"/>
-              <a:ext cx="444500" cy="345169"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="37" name="Group 36">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF8B5D8-A28C-0D89-107B-BC2BA2950DF4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="10479586" y="4290958"/>
-            <a:ext cx="444500" cy="341710"/>
-            <a:chOff x="360364" y="4605904"/>
-            <a:chExt cx="444500" cy="345169"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="11" name="Picture 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B55B3221-42CC-C1D5-439D-96A9EF4ACE39}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-              <a:duotone>
-                <a:prstClr val="black"/>
-                <a:srgbClr val="7DA269">
-                  <a:tint val="45000"/>
-                  <a:satMod val="400000"/>
-                </a:srgbClr>
-              </a:duotone>
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="465932" y="4636862"/>
-              <a:ext cx="252000" cy="251546"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="32" name="Rectangle 31">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC6C50A-0BDD-45FB-B3A7-B0B7873489AC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="360364" y="4605904"/>
-              <a:ext cx="444500" cy="345169"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="38" name="Group 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A86E4159-F552-569C-B2C0-15A12A43F80C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="9808820" y="4272977"/>
-            <a:ext cx="444500" cy="341711"/>
-            <a:chOff x="361952" y="4955041"/>
-            <a:chExt cx="444500" cy="345168"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="13" name="Picture 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FDD080-38CF-626B-0EB7-D503F5B099C4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-              <a:duotone>
-                <a:prstClr val="black"/>
-                <a:srgbClr val="E8D8CA">
-                  <a:tint val="45000"/>
-                  <a:satMod val="400000"/>
-                </a:srgbClr>
-              </a:duotone>
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="487362" y="5007428"/>
-              <a:ext cx="216314" cy="253133"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="33" name="Rectangle 32">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EAC67AD-7CA9-41A3-B3A1-330355D347E3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="361952" y="4955041"/>
-              <a:ext cx="444500" cy="345168"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="39" name="Group 38">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638BC97F-7984-BEE5-FCF5-DF908284F210}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="9163969" y="4297170"/>
-            <a:ext cx="444500" cy="339672"/>
-            <a:chOff x="359571" y="5292270"/>
-            <a:chExt cx="444500" cy="345169"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="9" name="Picture 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121D4025-79C1-BCF6-0CCB-2FCA9D8A2C87}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
-              <a:duotone>
-                <a:prstClr val="black"/>
-                <a:srgbClr val="C8FBFB">
-                  <a:tint val="45000"/>
-                  <a:satMod val="400000"/>
-                </a:srgbClr>
-              </a:duotone>
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="488950" y="5332753"/>
-              <a:ext cx="234354" cy="253134"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="34" name="Rectangle 33">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A725F3E-56B5-4425-987A-38AAC35FE5AF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="359571" y="5292270"/>
-              <a:ext cx="444500" cy="345169"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="76" name="Rectangle 75">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3453DB5-F660-1E8C-8196-B292A9548594}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9237870" y="4313662"/>
-            <a:ext cx="2915478" cy="273721"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>4584440</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>19015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6189259</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>19451</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7789,7 +6383,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4584440" y="2527265"/>
+          <a:off x="4584440" y="2305015"/>
           <a:ext cx="1604819" cy="1143436"/>
           <a:chOff x="3635460" y="2163074"/>
           <a:chExt cx="1604819" cy="1121024"/>
@@ -7965,84 +6559,235 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>23091</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>346364</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>29883</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1397000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="Rectangle 79">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="Group 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A80554-514D-BDD6-093A-91A25BE484ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E6EDC9-C2FE-5B4E-050B-39082B5F5392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23091" y="346364"/>
-          <a:ext cx="8573832" cy="1767046"/>
+          <a:off x="23091" y="682625"/>
+          <a:ext cx="8595167" cy="1397000"/>
+          <a:chOff x="23091" y="679824"/>
+          <a:chExt cx="8597968" cy="1397000"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="Picture 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89174C6C-B9BA-F7B9-5118-4106BB2585C4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="5271" r="6626"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="177800" y="682999"/>
+            <a:ext cx="1806575" cy="1371237"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="Straight Connector 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D69CBB-9ECA-ECF0-4FAE-CC3CD125FF57}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2128837" y="730442"/>
+            <a:ext cx="0" cy="1276350"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="TextBox 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E14DF7F-41AB-B6C1-E14B-722E2F3C94D3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2196353" y="922249"/>
+            <a:ext cx="6338047" cy="885633"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="just"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>An NFT Collection launched in 2017, Cryptopunks are credited with starting</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> the NFT Craze of 2021. There are 10,000 CryptoPunks in general and are classified based on punk types: Ape, Alien, Female, Male and Zombie; Attributes they possess and Attribute Counts . This project was carried out to analyse if the price a punk is sold at depends on rarity of a punk type or attribute count.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="Rectangle 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A80554-514D-BDD6-093A-91A25BE484ED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="23091" y="679824"/>
+            <a:ext cx="8597968" cy="1397000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="50800" dir="2700000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="638596">
-              <a:alpha val="90000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="2700000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="638596">
+                <a:alpha val="90000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6766588</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8371407</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>11543</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8058,7 +6803,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6766588" y="2518028"/>
+          <a:off x="6766588" y="2295778"/>
           <a:ext cx="1604819" cy="1144765"/>
           <a:chOff x="3635460" y="2163074"/>
           <a:chExt cx="1604819" cy="1122368"/>
@@ -8338,13 +7083,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>275937</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>9992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1080177</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>127880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8360,8 +7105,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="275937" y="7306719"/>
-          <a:ext cx="804240" cy="1780434"/>
+          <a:off x="275937" y="7248992"/>
+          <a:ext cx="804240" cy="1832388"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8566,13 +7311,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4660900</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>8324850</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8588,8 +7333,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4660900" y="8820150"/>
-          <a:ext cx="3663950" cy="222250"/>
+          <a:off x="4660900" y="8832850"/>
+          <a:ext cx="3663950" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8691,7 +7436,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8743,6 +7488,1259 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4956969</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>169755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8032752</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>179640</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="Group 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C95BEB-78D5-4BB7-1D3A-7BEDD9520C5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4956969" y="5694255"/>
+          <a:ext cx="3075783" cy="390885"/>
+          <a:chOff x="9241810" y="4375696"/>
+          <a:chExt cx="3175710" cy="383415"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="77" name="Group 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD7AD55-3018-A18B-73A7-069575407410}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9241810" y="4375696"/>
+            <a:ext cx="3059190" cy="383415"/>
+            <a:chOff x="9163969" y="4272977"/>
+            <a:chExt cx="3057219" cy="374320"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="Rectangle 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53AD360-D2C3-2068-BFEE-B3D7449B92B7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11772790" y="4274122"/>
+              <a:ext cx="448398" cy="336133"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="Rectangle 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362ABB6C-2E52-4554-A325-56B8629D6FAD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11136036" y="4305586"/>
+              <a:ext cx="444500" cy="341711"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="Rectangle 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC6C50A-0BDD-45FB-B3A7-B0B7873489AC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10479586" y="4290958"/>
+              <a:ext cx="444500" cy="341710"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="Rectangle 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EAC67AD-7CA9-41A3-B3A1-330355D347E3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9808820" y="4272977"/>
+              <a:ext cx="444500" cy="341711"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="Rectangle 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A725F3E-56B5-4425-987A-38AAC35FE5AF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9163969" y="4297170"/>
+              <a:ext cx="444500" cy="339672"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="76" name="Rectangle 75">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3453DB5-F660-1E8C-8196-B292A9548594}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9237870" y="4313662"/>
+              <a:ext cx="2915478" cy="273721"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2A7E12-ADF0-79F7-4A27-1AB096152B8F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9241997" y="4449913"/>
+            <a:ext cx="508000" cy="224119"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Alien</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{260E367F-CAFC-E58B-9920-169D7BF16506}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9918782" y="4452470"/>
+            <a:ext cx="463177" cy="209177"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Ape</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="TextBox 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA325FF-271A-64C4-AEDB-3EE243E478D5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10490224" y="4445001"/>
+            <a:ext cx="620059" cy="224116"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Zombie</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="TextBox 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1009377B-0A6D-97C3-8896-CEFB8CEFF67E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11218547" y="4441265"/>
+            <a:ext cx="612588" cy="231588"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Female</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="TextBox 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65184E0E-E175-8E1B-79FF-287F07F3E999}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11939402" y="4437529"/>
+            <a:ext cx="478118" cy="239059"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Male</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>289112</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>156471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>904688</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>40563</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="40" name="Group 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83AF71E-583C-14CC-33FF-B9CCAAC7EB1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="289112" y="4156971"/>
+          <a:ext cx="615576" cy="1789092"/>
+          <a:chOff x="9657230" y="4922707"/>
+          <a:chExt cx="615576" cy="1751739"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="60" name="Group 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A83BDF5-2030-4BA6-A99C-AA29ED28D1F8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9755589" y="4922707"/>
+            <a:ext cx="447049" cy="1751739"/>
+            <a:chOff x="359403" y="3916320"/>
+            <a:chExt cx="447049" cy="1721477"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="75" name="Rectangle 74">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9B9AEB-2F64-6AE1-007E-388D8D283905}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="361156" y="3916320"/>
+              <a:ext cx="444500" cy="339851"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="73" name="Rectangle 72">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A6A910-D7C9-564A-F257-17BFF99E8F70}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="359403" y="4256171"/>
+              <a:ext cx="444500" cy="345408"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="71" name="Rectangle 70">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB064605-AF85-F05E-4BF1-231BB3FCC5F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="360364" y="4602204"/>
+              <a:ext cx="444500" cy="345407"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="69" name="Rectangle 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E681DB28-900B-8BB5-C0C0-6164B255F5FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="361952" y="4944895"/>
+              <a:ext cx="444500" cy="345408"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="Rectangle 66">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BE677F-7587-624C-C780-B802948DB094}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="359571" y="5292390"/>
+              <a:ext cx="444500" cy="345407"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="TextBox 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CF68AC-94CB-4E17-8AE9-8866F48E94E3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9732913" y="6370948"/>
+            <a:ext cx="508000" cy="224119"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Alien</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="TextBox 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C42D819-3459-48E3-929A-9F9237B6FF79}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9785978" y="6002867"/>
+            <a:ext cx="463177" cy="209177"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Ape</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="TextBox 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D51471C-3C80-4B4B-AC9D-CB56F2012B3A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9657230" y="5655580"/>
+            <a:ext cx="615576" cy="206186"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Zombie</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="89" name="TextBox 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E0FC6D-4D5D-4DD8-8465-6C6D4061D3FE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9658724" y="5314048"/>
+            <a:ext cx="612588" cy="231588"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Female</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="TextBox 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95F0FFC-0BF8-4EB5-AF3B-AAF056E73163}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9725959" y="4942787"/>
+            <a:ext cx="478118" cy="239059"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Male</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8827,6 +8825,1242 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>11190</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15115</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04205B9E-D5E9-4D92-A9D6-2B8D33C68139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3048000" y="2762250"/>
+          <a:ext cx="3059190" cy="383415"/>
+          <a:chOff x="9163969" y="4272977"/>
+          <a:chExt cx="3057219" cy="374320"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="Group 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E227E6E8-3E72-C0A6-4BFB-A6D302D06A67}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11772790" y="4274122"/>
+            <a:ext cx="448398" cy="336133"/>
+            <a:chOff x="361156" y="3924372"/>
+            <a:chExt cx="444500" cy="341673"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="17" name="Picture 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655B124F-CF3C-E371-A8B9-F4AF1214D884}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="497052" y="3982672"/>
+              <a:ext cx="179519" cy="256329"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="Rectangle 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B571AA0-0C78-43A6-9409-EDDAAD5AEB87}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="361156" y="3924372"/>
+              <a:ext cx="444500" cy="341673"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="4" name="Group 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E11ABA-B103-D68A-3D2A-102655E9B4AA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11136036" y="4305586"/>
+            <a:ext cx="444500" cy="341711"/>
+            <a:chOff x="362745" y="4256768"/>
+            <a:chExt cx="444500" cy="345169"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Picture 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B94A96-E2DB-4883-53A4-2D0F17D80D44}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="508000" y="4288518"/>
+              <a:ext cx="162903" cy="254268"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="Rectangle 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3F57B0-2D2A-F9DF-BEBE-065C0F53ECE5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="362745" y="4256768"/>
+              <a:ext cx="444500" cy="345169"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="5" name="Group 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9301610-7DBF-4928-4D7D-94212790A4C8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10479586" y="4290958"/>
+            <a:ext cx="444500" cy="341710"/>
+            <a:chOff x="360364" y="4605904"/>
+            <a:chExt cx="444500" cy="345169"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Picture 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54193631-05BF-C347-91C0-5D1C5DF5E19B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:duotone>
+                <a:prstClr val="black"/>
+                <a:srgbClr val="7DA269">
+                  <a:tint val="45000"/>
+                  <a:satMod val="400000"/>
+                </a:srgbClr>
+              </a:duotone>
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="465932" y="4636862"/>
+              <a:ext cx="252000" cy="251546"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="Rectangle 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3546AAAA-4406-6ECD-0ACD-1D24C7E32F5A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="360364" y="4605904"/>
+              <a:ext cx="444500" cy="345169"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="Group 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA61E829-A048-66F6-8824-B772640C9D57}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9808820" y="4272977"/>
+            <a:ext cx="444500" cy="341711"/>
+            <a:chOff x="361952" y="4955041"/>
+            <a:chExt cx="444500" cy="345168"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Picture 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E141597-6093-62E1-568F-1B3F48F66C79}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+              <a:duotone>
+                <a:prstClr val="black"/>
+                <a:srgbClr val="E8D8CA">
+                  <a:tint val="45000"/>
+                  <a:satMod val="400000"/>
+                </a:srgbClr>
+              </a:duotone>
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="487362" y="5007428"/>
+              <a:ext cx="216314" cy="253133"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="Rectangle 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F70677FB-2938-5DAD-E953-A0A58D968FCD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="361952" y="4955041"/>
+              <a:ext cx="444500" cy="345168"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="7" name="Group 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91AB9AEA-51D6-9F8A-75BD-6E2DF23CB624}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9163969" y="4297170"/>
+            <a:ext cx="444500" cy="339672"/>
+            <a:chOff x="359571" y="5292270"/>
+            <a:chExt cx="444500" cy="345169"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Picture 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A22710B-E85B-40D3-D201-DF111FB2D3DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+              <a:duotone>
+                <a:prstClr val="black"/>
+                <a:srgbClr val="C8FBFB">
+                  <a:tint val="45000"/>
+                  <a:satMod val="400000"/>
+                </a:srgbClr>
+              </a:duotone>
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="488950" y="5332753"/>
+              <a:ext cx="234354" cy="253134"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="Rectangle 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D1BF18-8E0C-52BD-37F0-52EE3B99B349}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="359571" y="5292270"/>
+              <a:ext cx="444500" cy="345169"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486E0559-CB76-687F-20C6-E41F40D21FEE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9237870" y="4313662"/>
+            <a:ext cx="2915478" cy="273721"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447049</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>94389</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="Group 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686D6B4D-3BF3-46DA-A924-6C6028119273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1657350"/>
+          <a:ext cx="447049" cy="1751739"/>
+          <a:chOff x="359403" y="3916320"/>
+          <a:chExt cx="447049" cy="1721477"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="20" name="Group 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FF4EC0-4CC1-AA81-6A20-B65D39098742}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="361156" y="3916320"/>
+            <a:ext cx="444500" cy="339851"/>
+            <a:chOff x="361156" y="3924372"/>
+            <a:chExt cx="444500" cy="341673"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="33" name="Picture 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C10864-019F-DE97-BAFD-CD3BDCE1073F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="497052" y="3982672"/>
+              <a:ext cx="179519" cy="256329"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="Rectangle 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C6740F-0A6A-53C8-42E7-52A324AE890B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="361156" y="3924372"/>
+              <a:ext cx="444500" cy="341673"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="21" name="Group 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954CC397-A557-610A-12AF-D27D69B1C3EF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="359403" y="4256171"/>
+            <a:ext cx="444500" cy="345408"/>
+            <a:chOff x="362745" y="4256768"/>
+            <a:chExt cx="444500" cy="345169"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="31" name="Picture 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AFB257B-196C-1352-DED1-355A27B3FA41}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="508000" y="4288518"/>
+              <a:ext cx="162903" cy="254268"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="Rectangle 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE0A572-693F-0975-E082-E991101E748E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="362745" y="4256768"/>
+              <a:ext cx="444500" cy="345169"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="22" name="Group 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF459D2-EBA2-E8ED-FD29-E5051D2F2332}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="360364" y="4602204"/>
+            <a:ext cx="444500" cy="345407"/>
+            <a:chOff x="360364" y="4605904"/>
+            <a:chExt cx="444500" cy="345169"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="Picture 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410543D3-5FF7-E791-C6BE-9070CC32E682}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:duotone>
+                <a:prstClr val="black"/>
+                <a:srgbClr val="7DA269">
+                  <a:tint val="45000"/>
+                  <a:satMod val="400000"/>
+                </a:srgbClr>
+              </a:duotone>
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="465932" y="4636862"/>
+              <a:ext cx="252000" cy="251546"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="Rectangle 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE57EF5-C91E-48FF-27DD-45E145F7F71F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="360364" y="4605904"/>
+              <a:ext cx="444500" cy="345169"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="23" name="Group 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188F0481-745F-AD87-A428-FA2F4B72D1D1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="361952" y="4944895"/>
+            <a:ext cx="444500" cy="345408"/>
+            <a:chOff x="361952" y="4955041"/>
+            <a:chExt cx="444500" cy="345168"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="27" name="Picture 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{662B568A-D1B0-E77B-6914-1047DCA573AA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+              <a:duotone>
+                <a:prstClr val="black"/>
+                <a:srgbClr val="E8D8CA">
+                  <a:tint val="45000"/>
+                  <a:satMod val="400000"/>
+                </a:srgbClr>
+              </a:duotone>
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="487362" y="5007428"/>
+              <a:ext cx="216314" cy="253133"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="Rectangle 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B46BBE6-D3A2-C290-C03C-1CF160558FCF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="361952" y="4955041"/>
+              <a:ext cx="444500" cy="345168"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="24" name="Group 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC64B737-3AC8-FB11-52A6-754AE151B057}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="359571" y="5292390"/>
+            <a:ext cx="444500" cy="345407"/>
+            <a:chOff x="359571" y="5292270"/>
+            <a:chExt cx="444500" cy="345169"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="25" name="Picture 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F96B50-F22A-D6B7-77A2-DA0A600ACAC3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+              <a:duotone>
+                <a:prstClr val="black"/>
+                <a:srgbClr val="C8FBFB">
+                  <a:tint val="45000"/>
+                  <a:satMod val="400000"/>
+                </a:srgbClr>
+              </a:duotone>
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="488950" y="5332753"/>
+              <a:ext cx="234354" cy="253134"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="Rectangle 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D22ACBE-B973-6D25-3AC8-14258D9709A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="359571" y="5292270"/>
+              <a:ext cx="444500" cy="345169"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9183,15 +10417,15 @@
         <v>343</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -9203,8 +10437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6946B6DC-972A-4A33-9276-1E5BC691C458}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9213,7 +10447,7 @@
     <col min="2" max="2" width="50.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>341</v>
       </c>
@@ -9227,10 +10461,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84654BBE-EADC-4B95-9774-3D220BD1BEE5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -11400,7 +12649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA57CDC8-14C7-4CD1-A31D-3A27E9F197C3}">
   <dimension ref="A1:E101"/>
   <sheetViews>
@@ -11433,7 +12682,7 @@
         <v>100</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">

--- a/Analysis_Worksheets/cryptopunks.xlsx
+++ b/Analysis_Worksheets/cryptopunks.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Analysis_of_Cryptopunks_Top_60\Analysis_Worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F35B62-2772-4E88-9E71-26A56EA8ACE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83570B7B-0EBA-4A20-8944-A836DA72CEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_xltb_storage_" sheetId="5" state="veryHidden" r:id="rId1"/>
     <sheet name="Data viz" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="cryptopunks" sheetId="1" r:id="rId4"/>
-    <sheet name="attributes" sheetId="3" r:id="rId5"/>
+    <sheet name="cryptopunks" sheetId="1" r:id="rId3"/>
+    <sheet name="attributes" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">attributes!$B$1:$B$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">attributes!$B$1:$B$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,30 +37,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="348">
   <si>
     <t>#5822</t>
   </si>
@@ -2421,10 +2398,10 @@
                   <c:v>Zombie</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Female</c:v>
+                  <c:v>Male</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Male</c:v>
+                  <c:v>Female</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2445,10 +2422,10 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2478,12 +2455,42 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1332142416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -2499,7 +2506,7 @@
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1332138256"/>
@@ -2649,9 +2656,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="3.6852379444972036E-2"/>
-          <c:y val="0.25300667287399126"/>
+          <c:y val="0.28310851862473918"/>
           <c:w val="0.9262952411100559"/>
-          <c:h val="0.62341364059590321"/>
+          <c:h val="0.59331212782717035"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2746,22 +2753,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>6 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0 Attributes</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1 Attributes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2 Attributes</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3 Attributes</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4 Attributes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 Attributes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2773,19 +2780,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -2818,12 +2825,45 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1187322848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -3073,10 +3113,10 @@
                   <c:v>Zombie</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Female</c:v>
+                  <c:v>Male</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Male</c:v>
+                  <c:v>Female</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3097,10 +3137,10 @@
                   <c:v>0.23863636363636365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8229166666666667E-3</c:v>
+                  <c:v>2.3182646133465806E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3182646133465806E-3</c:v>
+                  <c:v>1.8229166666666667E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3127,14 +3167,47 @@
       <c:catAx>
         <c:axId val="1847241631"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1847243711"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -3148,7 +3221,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3424,22 +3497,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>6 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0 Attributes</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1 Attributes</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2 Attributes</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3 Attributes</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4 Attributes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6 Attributes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3451,22 +3524,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.125</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.7027027027027029E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5.3370786516853935E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.2212841590757609E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1.4084507042253522E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3493,14 +3566,47 @@
       <c:catAx>
         <c:axId val="73912831"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="73916575"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -3514,7 +3620,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5849,8 +5955,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="219364" y="2300942"/>
-          <a:ext cx="1604818" cy="1143000"/>
+          <a:off x="219364" y="2282799"/>
+          <a:ext cx="1604818" cy="1088572"/>
           <a:chOff x="6021294" y="11586883"/>
           <a:chExt cx="1837850" cy="1234004"/>
         </a:xfrm>
@@ -6009,8 +6115,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2401511" y="2293816"/>
-          <a:ext cx="1605600" cy="1143436"/>
+          <a:off x="2401511" y="2275673"/>
+          <a:ext cx="1605600" cy="1089008"/>
           <a:chOff x="6021297" y="11586883"/>
           <a:chExt cx="1763059" cy="1135530"/>
         </a:xfrm>
@@ -6383,8 +6489,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4584440" y="2305015"/>
-          <a:ext cx="1604819" cy="1143436"/>
+          <a:off x="4584440" y="2286872"/>
+          <a:ext cx="1604819" cy="1089008"/>
           <a:chOff x="3635460" y="2163074"/>
           <a:chExt cx="1604819" cy="1121024"/>
         </a:xfrm>
@@ -6581,8 +6687,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23091" y="682625"/>
-          <a:ext cx="8595167" cy="1397000"/>
+          <a:off x="23091" y="680357"/>
+          <a:ext cx="8597435" cy="1397000"/>
           <a:chOff x="23091" y="679824"/>
           <a:chExt cx="8597968" cy="1397000"/>
         </a:xfrm>
@@ -6674,8 +6780,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2196353" y="922249"/>
-            <a:ext cx="6338047" cy="885633"/>
+            <a:off x="2150993" y="849678"/>
+            <a:ext cx="6338047" cy="1072932"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6712,7 +6818,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1200" baseline="0"/>
-              <a:t> the NFT Craze of 2021. There are 10,000 CryptoPunks in general and are classified based on punk types: Ape, Alien, Female, Male and Zombie; Attributes they possess and Attribute Counts . This project was carried out to analyse if the price a punk is sold at depends on rarity of a punk type or attribute count.</a:t>
+              <a:t> the NFT Craze of 2021. There are 10,000 CryptoPunks in general and are classified based on punk types: Ape, Alien, Female, Male and Zombie; Attributes they possess and Attribute Counts . This project was carried out to analyse the trend of the percentage of the punk types and attribute counts according to their rarity in the top sales.</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200"/>
           </a:p>
@@ -6803,8 +6909,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6766588" y="2295778"/>
-          <a:ext cx="1604819" cy="1144765"/>
+          <a:off x="6766588" y="2277635"/>
+          <a:ext cx="1604819" cy="1090337"/>
           <a:chOff x="3635460" y="2163074"/>
           <a:chExt cx="1604819" cy="1122368"/>
         </a:xfrm>
@@ -7082,353 +7188,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>275937</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9992</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1080177</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>127880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8B4724-B7E8-35F9-22AD-24457CD001CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="275937" y="7248992"/>
-          <a:ext cx="804240" cy="1832388"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="875">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>6 Attributes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="875">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="875">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="875">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Attributes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="875">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="875">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3 Attributes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="875">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="875">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2 Attributes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="875">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="875">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1 Attributes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="875">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="875">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>0 Attributes</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="875">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4660900</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>8324850</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="TextBox 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47103E2-E928-727D-14F7-365B5535955A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4660900" y="8832850"/>
-          <a:ext cx="3663950" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Attributes 1 Attributes 2 Attributes 3 Attributes 4 Attributes 6</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Attributes</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -7488,1259 +7247,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4956969</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>169755</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>8032752</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="28" name="Group 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C95BEB-78D5-4BB7-1D3A-7BEDD9520C5A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4956969" y="5694255"/>
-          <a:ext cx="3075783" cy="390885"/>
-          <a:chOff x="9241810" y="4375696"/>
-          <a:chExt cx="3175710" cy="383415"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="77" name="Group 76">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD7AD55-3018-A18B-73A7-069575407410}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="9241810" y="4375696"/>
-            <a:ext cx="3059190" cy="383415"/>
-            <a:chOff x="9163969" y="4272977"/>
-            <a:chExt cx="3057219" cy="374320"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="30" name="Rectangle 29">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53AD360-D2C3-2068-BFEE-B3D7449B92B7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11772790" y="4274122"/>
-              <a:ext cx="448398" cy="336133"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="31" name="Rectangle 30">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362ABB6C-2E52-4554-A325-56B8629D6FAD}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11136036" y="4305586"/>
-              <a:ext cx="444500" cy="341711"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="32" name="Rectangle 31">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC6C50A-0BDD-45FB-B3A7-B0B7873489AC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10479586" y="4290958"/>
-              <a:ext cx="444500" cy="341710"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="33" name="Rectangle 32">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EAC67AD-7CA9-41A3-B3A1-330355D347E3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9808820" y="4272977"/>
-              <a:ext cx="444500" cy="341711"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="34" name="Rectangle 33">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A725F3E-56B5-4425-987A-38AAC35FE5AF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9163969" y="4297170"/>
-              <a:ext cx="444500" cy="339672"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="76" name="Rectangle 75">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3453DB5-F660-1E8C-8196-B292A9548594}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9237870" y="4313662"/>
-              <a:ext cx="2915478" cy="273721"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="TextBox 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2A7E12-ADF0-79F7-4A27-1AB096152B8F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9241997" y="4449913"/>
-            <a:ext cx="508000" cy="224119"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Alien</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="TextBox 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{260E367F-CAFC-E58B-9920-169D7BF16506}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9918782" y="4452470"/>
-            <a:ext cx="463177" cy="209177"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Ape</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="TextBox 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA325FF-271A-64C4-AEDB-3EE243E478D5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10490224" y="4445001"/>
-            <a:ext cx="620059" cy="224116"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Zombie</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="TextBox 24">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1009377B-0A6D-97C3-8896-CEFB8CEFF67E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11218547" y="4441265"/>
-            <a:ext cx="612588" cy="231588"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Female</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="TextBox 25">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65184E0E-E175-8E1B-79FF-287F07F3E999}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11939402" y="4437529"/>
-            <a:ext cx="478118" cy="239059"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Male</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>289112</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>156471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>904688</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>40563</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="40" name="Group 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83AF71E-583C-14CC-33FF-B9CCAAC7EB1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="289112" y="4156971"/>
-          <a:ext cx="615576" cy="1789092"/>
-          <a:chOff x="9657230" y="4922707"/>
-          <a:chExt cx="615576" cy="1751739"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="60" name="Group 59">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A83BDF5-2030-4BA6-A99C-AA29ED28D1F8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="9755589" y="4922707"/>
-            <a:ext cx="447049" cy="1751739"/>
-            <a:chOff x="359403" y="3916320"/>
-            <a:chExt cx="447049" cy="1721477"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="75" name="Rectangle 74">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9B9AEB-2F64-6AE1-007E-388D8D283905}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="361156" y="3916320"/>
-              <a:ext cx="444500" cy="339851"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="73" name="Rectangle 72">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A6A910-D7C9-564A-F257-17BFF99E8F70}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="359403" y="4256171"/>
-              <a:ext cx="444500" cy="345408"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="71" name="Rectangle 70">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB064605-AF85-F05E-4BF1-231BB3FCC5F7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="360364" y="4602204"/>
-              <a:ext cx="444500" cy="345407"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="69" name="Rectangle 68">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E681DB28-900B-8BB5-C0C0-6164B255F5FF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="361952" y="4944895"/>
-              <a:ext cx="444500" cy="345408"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="67" name="Rectangle 66">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BE677F-7587-624C-C780-B802948DB094}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="359571" y="5292390"/>
-              <a:ext cx="444500" cy="345407"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="81" name="TextBox 80">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CF68AC-94CB-4E17-8AE9-8866F48E94E3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9732913" y="6370948"/>
-            <a:ext cx="508000" cy="224119"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Alien</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="TextBox 86">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C42D819-3459-48E3-929A-9F9237B6FF79}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9785978" y="6002867"/>
-            <a:ext cx="463177" cy="209177"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Ape</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="TextBox 87">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D51471C-3C80-4B4B-AC9D-CB56F2012B3A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9657230" y="5655580"/>
-            <a:ext cx="615576" cy="206186"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Zombie</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="89" name="TextBox 88">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E0FC6D-4D5D-4DD8-8465-6C6D4061D3FE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9658724" y="5314048"/>
-            <a:ext cx="612588" cy="231588"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Female</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="90" name="TextBox 89">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95F0FFC-0BF8-4EB5-AF3B-AAF056E73163}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9725959" y="4942787"/>
-            <a:ext cx="478118" cy="239059"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Male</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8825,1242 +7331,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>11190</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>15115</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04205B9E-D5E9-4D92-A9D6-2B8D33C68139}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3048000" y="2762250"/>
-          <a:ext cx="3059190" cy="383415"/>
-          <a:chOff x="9163969" y="4272977"/>
-          <a:chExt cx="3057219" cy="374320"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="Group 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E227E6E8-3E72-C0A6-4BFB-A6D302D06A67}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="11772790" y="4274122"/>
-            <a:ext cx="448398" cy="336133"/>
-            <a:chOff x="361156" y="3924372"/>
-            <a:chExt cx="444500" cy="341673"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="17" name="Picture 16">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655B124F-CF3C-E371-A8B9-F4AF1214D884}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="497052" y="3982672"/>
-              <a:ext cx="179519" cy="256329"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Rectangle 17">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B571AA0-0C78-43A6-9409-EDDAAD5AEB87}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="361156" y="3924372"/>
-              <a:ext cx="444500" cy="341673"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="4" name="Group 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E11ABA-B103-D68A-3D2A-102655E9B4AA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="11136036" y="4305586"/>
-            <a:ext cx="444500" cy="341711"/>
-            <a:chOff x="362745" y="4256768"/>
-            <a:chExt cx="444500" cy="345169"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="15" name="Picture 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B94A96-E2DB-4883-53A4-2D0F17D80D44}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="508000" y="4288518"/>
-              <a:ext cx="162903" cy="254268"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="Rectangle 15">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3F57B0-2D2A-F9DF-BEBE-065C0F53ECE5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="362745" y="4256768"/>
-              <a:ext cx="444500" cy="345169"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="5" name="Group 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9301610-7DBF-4928-4D7D-94212790A4C8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="10479586" y="4290958"/>
-            <a:ext cx="444500" cy="341710"/>
-            <a:chOff x="360364" y="4605904"/>
-            <a:chExt cx="444500" cy="345169"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="13" name="Picture 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54193631-05BF-C347-91C0-5D1C5DF5E19B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-              <a:duotone>
-                <a:prstClr val="black"/>
-                <a:srgbClr val="7DA269">
-                  <a:tint val="45000"/>
-                  <a:satMod val="400000"/>
-                </a:srgbClr>
-              </a:duotone>
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="465932" y="4636862"/>
-              <a:ext cx="252000" cy="251546"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="Rectangle 13">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3546AAAA-4406-6ECD-0ACD-1D24C7E32F5A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="360364" y="4605904"/>
-              <a:ext cx="444500" cy="345169"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="6" name="Group 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA61E829-A048-66F6-8824-B772640C9D57}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="9808820" y="4272977"/>
-            <a:ext cx="444500" cy="341711"/>
-            <a:chOff x="361952" y="4955041"/>
-            <a:chExt cx="444500" cy="345168"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="11" name="Picture 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E141597-6093-62E1-568F-1B3F48F66C79}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-              <a:duotone>
-                <a:prstClr val="black"/>
-                <a:srgbClr val="E8D8CA">
-                  <a:tint val="45000"/>
-                  <a:satMod val="400000"/>
-                </a:srgbClr>
-              </a:duotone>
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="487362" y="5007428"/>
-              <a:ext cx="216314" cy="253133"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Rectangle 11">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F70677FB-2938-5DAD-E953-A0A58D968FCD}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="361952" y="4955041"/>
-              <a:ext cx="444500" cy="345168"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="7" name="Group 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91AB9AEA-51D6-9F8A-75BD-6E2DF23CB624}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="9163969" y="4297170"/>
-            <a:ext cx="444500" cy="339672"/>
-            <a:chOff x="359571" y="5292270"/>
-            <a:chExt cx="444500" cy="345169"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="9" name="Picture 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A22710B-E85B-40D3-D201-DF111FB2D3DF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-              <a:duotone>
-                <a:prstClr val="black"/>
-                <a:srgbClr val="C8FBFB">
-                  <a:tint val="45000"/>
-                  <a:satMod val="400000"/>
-                </a:srgbClr>
-              </a:duotone>
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="488950" y="5332753"/>
-              <a:ext cx="234354" cy="253134"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="Rectangle 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D1BF18-8E0C-52BD-37F0-52EE3B99B349}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="359571" y="5292270"/>
-              <a:ext cx="444500" cy="345169"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Rectangle 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486E0559-CB76-687F-20C6-E41F40D21FEE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9237870" y="4313662"/>
-            <a:ext cx="2915478" cy="273721"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>447049</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>94389</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="Group 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686D6B4D-3BF3-46DA-A924-6C6028119273}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1828800" y="1657350"/>
-          <a:ext cx="447049" cy="1751739"/>
-          <a:chOff x="359403" y="3916320"/>
-          <a:chExt cx="447049" cy="1721477"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="20" name="Group 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FF4EC0-4CC1-AA81-6A20-B65D39098742}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="361156" y="3916320"/>
-            <a:ext cx="444500" cy="339851"/>
-            <a:chOff x="361156" y="3924372"/>
-            <a:chExt cx="444500" cy="341673"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="33" name="Picture 32">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C10864-019F-DE97-BAFD-CD3BDCE1073F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="497052" y="3982672"/>
-              <a:ext cx="179519" cy="256329"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="34" name="Rectangle 33">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C6740F-0A6A-53C8-42E7-52A324AE890B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="361156" y="3924372"/>
-              <a:ext cx="444500" cy="341673"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="21" name="Group 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954CC397-A557-610A-12AF-D27D69B1C3EF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="359403" y="4256171"/>
-            <a:ext cx="444500" cy="345408"/>
-            <a:chOff x="362745" y="4256768"/>
-            <a:chExt cx="444500" cy="345169"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="31" name="Picture 30">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AFB257B-196C-1352-DED1-355A27B3FA41}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="508000" y="4288518"/>
-              <a:ext cx="162903" cy="254268"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="32" name="Rectangle 31">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE0A572-693F-0975-E082-E991101E748E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="362745" y="4256768"/>
-              <a:ext cx="444500" cy="345169"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="22" name="Group 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF459D2-EBA2-E8ED-FD29-E5051D2F2332}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="360364" y="4602204"/>
-            <a:ext cx="444500" cy="345407"/>
-            <a:chOff x="360364" y="4605904"/>
-            <a:chExt cx="444500" cy="345169"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="29" name="Picture 28">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410543D3-5FF7-E791-C6BE-9070CC32E682}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-              <a:duotone>
-                <a:prstClr val="black"/>
-                <a:srgbClr val="7DA269">
-                  <a:tint val="45000"/>
-                  <a:satMod val="400000"/>
-                </a:srgbClr>
-              </a:duotone>
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="465932" y="4636862"/>
-              <a:ext cx="252000" cy="251546"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="30" name="Rectangle 29">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE57EF5-C91E-48FF-27DD-45E145F7F71F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="360364" y="4605904"/>
-              <a:ext cx="444500" cy="345169"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="23" name="Group 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188F0481-745F-AD87-A428-FA2F4B72D1D1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="361952" y="4944895"/>
-            <a:ext cx="444500" cy="345408"/>
-            <a:chOff x="361952" y="4955041"/>
-            <a:chExt cx="444500" cy="345168"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="27" name="Picture 26">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{662B568A-D1B0-E77B-6914-1047DCA573AA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-              <a:duotone>
-                <a:prstClr val="black"/>
-                <a:srgbClr val="E8D8CA">
-                  <a:tint val="45000"/>
-                  <a:satMod val="400000"/>
-                </a:srgbClr>
-              </a:duotone>
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="487362" y="5007428"/>
-              <a:ext cx="216314" cy="253133"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="28" name="Rectangle 27">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B46BBE6-D3A2-C290-C03C-1CF160558FCF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="361952" y="4955041"/>
-              <a:ext cx="444500" cy="345168"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="24" name="Group 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC64B737-3AC8-FB11-52A6-754AE151B057}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="359571" y="5292390"/>
-            <a:ext cx="444500" cy="345407"/>
-            <a:chOff x="359571" y="5292270"/>
-            <a:chExt cx="444500" cy="345169"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="25" name="Picture 24">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F96B50-F22A-D6B7-77A2-DA0A600ACAC3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-              <a:duotone>
-                <a:prstClr val="black"/>
-                <a:srgbClr val="C8FBFB">
-                  <a:tint val="45000"/>
-                  <a:satMod val="400000"/>
-                </a:srgbClr>
-              </a:duotone>
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="488950" y="5332753"/>
-              <a:ext cx="234354" cy="253134"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="26" name="Rectangle 25">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D22ACBE-B973-6D25-3AC8-14258D9709A2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="359571" y="5292270"/>
-              <a:ext cx="444500" cy="345169"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10437,8 +7707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6946B6DC-972A-4A33-9276-1E5BC691C458}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:A40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10461,26 +7731,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84654BBE-EADC-4B95-9774-3D220BD1BEE5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12420,112 +9675,109 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" s="13" t="str" cm="1">
-        <f t="array" ref="A64:A70">_xlfn._xlws.SORT(_xlfn.UNIQUE($I$2:$I$61))</f>
-        <v>0 Attributes</v>
+      <c r="A64" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="B64" s="2">
         <f xml:space="preserve"> COUNTIF($I$2:$I$61, A64)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" s="2">
         <f>VLOOKUP(A64, attributes!$A$1:$E$101, 2, FALSE)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D64" s="11">
         <f>B64/C64</f>
-        <v>0.125</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="7" t="str">
-        <v>1 Attributes</v>
+      <c r="A65" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="B65" s="2">
-        <f t="shared" ref="B65:B69" si="2" xml:space="preserve"> COUNTIF($I$2:$I$61, A65)</f>
-        <v>9</v>
+        <f xml:space="preserve"> COUNTIF($I$2:$I$61, A65)</f>
+        <v>1</v>
       </c>
       <c r="C65" s="2">
         <f>VLOOKUP(A65, attributes!$A$1:$E$101, 2, FALSE)</f>
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="D65" s="11">
-        <f t="shared" ref="D65:D69" si="3">B65/C65</f>
-        <v>2.7027027027027029E-2</v>
+        <f>B65/C65</f>
+        <v>0.125</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="13" t="str">
-        <v>2 Attributes</v>
+      <c r="A66" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="B66" s="2">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f xml:space="preserve"> COUNTIF($I$2:$I$61, A66)</f>
+        <v>9</v>
       </c>
       <c r="C66" s="2">
         <f>VLOOKUP(A66, attributes!$A$1:$E$101, 2, FALSE)</f>
-        <v>3560</v>
+        <v>333</v>
       </c>
       <c r="D66" s="11">
-        <f t="shared" si="3"/>
-        <v>5.3370786516853935E-3</v>
+        <f>B66/C66</f>
+        <v>2.7027027027027029E-2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="13" t="str">
-        <v>3 Attributes</v>
+      <c r="A67" s="13" t="s">
+        <v>198</v>
       </c>
       <c r="B67" s="2">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> COUNTIF($I$2:$I$61, A67)</f>
         <v>19</v>
       </c>
       <c r="C67" s="2">
         <f>VLOOKUP(A67, attributes!$A$1:$E$101, 2, FALSE)</f>
-        <v>4501</v>
+        <v>3560</v>
       </c>
       <c r="D67" s="11">
-        <f t="shared" si="3"/>
-        <v>4.2212841590757609E-3</v>
+        <f>B67/C67</f>
+        <v>5.3370786516853935E-3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="13" t="str">
-        <v>4 Attributes</v>
+      <c r="A68" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f xml:space="preserve"> COUNTIF($I$2:$I$61, A68)</f>
+        <v>19</v>
       </c>
       <c r="C68" s="2">
         <f>VLOOKUP(A68, attributes!$A$1:$E$101, 2, FALSE)</f>
-        <v>1420</v>
+        <v>4501</v>
       </c>
       <c r="D68" s="11">
-        <f t="shared" si="3"/>
-        <v>1.4084507042253522E-3</v>
+        <f>B68/C68</f>
+        <v>4.2212841590757609E-3</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="14" t="str">
-        <v>6 Attributes</v>
+      <c r="A69" s="14" t="s">
+        <v>200</v>
       </c>
       <c r="B69" s="4">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> COUNTIF($I$2:$I$61, A69)</f>
         <v>2</v>
       </c>
       <c r="C69" s="4">
         <f>VLOOKUP(A69, attributes!$A$1:$E$101, 2, FALSE)</f>
-        <v>11</v>
+        <v>1420</v>
       </c>
       <c r="D69" s="12">
-        <f t="shared" si="3"/>
-        <v>0.18181818181818182</v>
+        <f>B69/C69</f>
+        <v>1.4084507042253522E-3</v>
       </c>
     </row>
     <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="15">
-        <v>0</v>
-      </c>
+      <c r="A70" s="15"/>
     </row>
     <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -12543,9 +9795,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="7" t="str" cm="1">
-        <f t="array" ref="A75:A79">_xlfn.UNIQUE(K2:K53)</f>
-        <v>Alien</v>
+      <c r="A75" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="B75" s="2">
         <f>COUNTIF($K$2:$K$61, A75)</f>
@@ -12561,11 +9812,11 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="7" t="str">
-        <v>Ape</v>
+      <c r="A76" t="s">
+        <v>102</v>
       </c>
       <c r="B76" s="2">
-        <f t="shared" ref="B76:B79" si="4">COUNTIF($K$2:$K$61, A76)</f>
+        <f>COUNTIF($K$2:$K$61, A76)</f>
         <v>6</v>
       </c>
       <c r="C76" s="2">
@@ -12573,16 +9824,16 @@
         <v>24</v>
       </c>
       <c r="D76" s="11">
-        <f t="shared" ref="D76:D79" si="5">B76/C76</f>
+        <f>B76/C76</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="7" t="str">
-        <v>Zombie</v>
+      <c r="A77" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B77" s="2">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($K$2:$K$61, A77)</f>
         <v>21</v>
       </c>
       <c r="C77" s="2">
@@ -12590,42 +9841,42 @@
         <v>88</v>
       </c>
       <c r="D77" s="11">
-        <f t="shared" si="5"/>
+        <f>B77/C77</f>
         <v>0.23863636363636365</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="7" t="str">
-        <v>Female</v>
+      <c r="A78" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="B78" s="2">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f t="shared" ref="B76:B79" si="2">COUNTIF($K$2:$K$61, A78)</f>
+        <v>14</v>
       </c>
       <c r="C78" s="2">
         <f>VLOOKUP(A78, attributes!$A$1:$E$101, 2, FALSE)</f>
-        <v>3840</v>
+        <v>6039</v>
       </c>
       <c r="D78" s="11">
-        <f t="shared" si="5"/>
-        <v>1.8229166666666667E-3</v>
+        <f>B78/C78</f>
+        <v>2.3182646133465806E-3</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="8" t="str">
-        <v>Male</v>
+      <c r="A79" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="B79" s="4">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="C79" s="4">
         <f>VLOOKUP(A79, attributes!$A$1:$E$101, 2, FALSE)</f>
-        <v>6039</v>
+        <v>3840</v>
       </c>
       <c r="D79" s="12">
-        <f t="shared" si="5"/>
-        <v>2.3182646133465806E-3</v>
+        <f>B79/C79</f>
+        <v>1.8229166666666667E-3</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12649,7 +9900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA57CDC8-14C7-4CD1-A31D-3A27E9F197C3}">
   <dimension ref="A1:E101"/>
   <sheetViews>

--- a/Analysis_Worksheets/cryptopunks.xlsx
+++ b/Analysis_Worksheets/cryptopunks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Analysis_of_Cryptopunks_Top_60\Analysis_Worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83570B7B-0EBA-4A20-8944-A836DA72CEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C77206-52D8-4C34-BDB2-A0BAEC55CCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="350">
   <si>
     <t>#5822</t>
   </si>
@@ -1099,6 +1099,12 @@
   </si>
   <si>
     <t>C:\Analysis_of_Cryptopunks_Top_60\data-viz.png</t>
+  </si>
+  <si>
+    <t>Percentage of attribute count not in top sales</t>
+  </si>
+  <si>
+    <t>Percentage of punk type not in top sales</t>
   </si>
 </sst>
 </file>
@@ -1733,9 +1739,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1748,9 +1752,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1802,7 +1804,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1814,13 +1816,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1831,6 +1829,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="21" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1878,16 +1885,6 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -2194,12 +2191,23 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF638596"/>
+      <color rgb="FFF496D7"/>
       <color rgb="FFEA34B0"/>
-      <color rgb="FF638596"/>
       <color rgb="FFDBB180"/>
       <color rgb="FFE8D8CA"/>
       <color rgb="FF856F56"/>
@@ -2955,7 +2963,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2963,13 +2971,24 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1">
+              <a:rPr lang="en-US" b="1" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Percentage of Punks in Top 60 By Type</a:t>
+              <a:t>Percentage of Punks in Top 60 by </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Attribute Count </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2988,7 +3007,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3001,412 +3020,9 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15589925515577902"/>
-          <c:y val="0.18499247137591204"/>
-          <c:w val="0.79401035904643302"/>
-          <c:h val="0.68430558751937143"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>cryptopunks!$D$74</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Percentage of punk type in top sales</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="EA34B0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>cryptopunks!$A$75:$A$79</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Alien</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ape</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Zombie</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Male</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Female</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>cryptopunks!$D$75:$D$79</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.44444444444444442</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.23863636363636365</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3182646133465806E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8229166666666667E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D8D4-447D-9802-E5FC965479C8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1847241631"/>
-        <c:axId val="1847243711"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1847241631"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1847243711"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1847243711"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1847241631"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst>
-      <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
-        <a:srgbClr val="638596">
-          <a:alpha val="80000"/>
-        </a:srgbClr>
-      </a:outerShdw>
-    </a:effectLst>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Percentage of Punks</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>in Top 60 By </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>A</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>ttribute Count </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.2071233164983165"/>
-          <c:y val="0.26717292803522646"/>
-          <c:w val="0.74610690235690236"/>
-          <c:h val="0.64417301396470084"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -3434,6 +3050,138 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1111111111111117E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-4F9B-4AF5-82B9-CC9D7C62F21A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9444444444444445E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4F9B-4AF5-82B9-CC9D7C62F21A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.3333333333333332E-3"/>
+                  <c:y val="8.4875562720133283E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4F9B-4AF5-82B9-CC9D7C62F21A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5555555555555558E-3"/>
+                  <c:y val="-8.4875562720133283E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4F9B-4AF5-82B9-CC9D7C62F21A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1111111111111212E-2"/>
+                  <c:y val="8.4875562720133283E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-4F9B-4AF5-82B9-CC9D7C62F21A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.3333333333333332E-3"/>
+                  <c:y val="-8.4875562720133283E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4F9B-4AF5-82B9-CC9D7C62F21A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3546,7 +3294,496 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1AA4-4550-94F3-2D90FCD275B8}"/>
+              <c16:uniqueId val="{00000006-4F9B-4AF5-82B9-CC9D7C62F21A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cryptopunks!$E$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>cryptopunks!$A$64:$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4 Attributes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cryptopunks!$E$64:$E$69</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4F9B-4AF5-82B9-CC9D7C62F21A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cryptopunks!$F$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>cryptopunks!$A$64:$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4 Attributes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cryptopunks!$F$64:$F$69</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4F9B-4AF5-82B9-CC9D7C62F21A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cryptopunks!$G$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>cryptopunks!$A$64:$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4 Attributes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cryptopunks!$G$64:$G$69</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-4F9B-4AF5-82B9-CC9D7C62F21A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cryptopunks!$H$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of attribute count not in top sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F496D7"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>cryptopunks!$A$64:$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3 Attributes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4 Attributes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cryptopunks!$H$64:$H$69</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.81818181818181812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97297297297297303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99466292134831458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99577871584092426</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99859154929577465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-4F9B-4AF5-82B9-CC9D7C62F21A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3559,17 +3796,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="73912831"/>
-        <c:axId val="73916575"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1215215040"/>
+        <c:axId val="662734240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73912831"/>
+        <c:axId val="1215215040"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3607,26 +3845,27 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73916575"/>
+        <c:crossAx val="662734240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73916575"/>
+        <c:axId val="662734240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="t"/>
+        <c:axPos val="r"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73912831"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1215215040"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -3637,13 +3876,995 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
+        <a:srgbClr val="638596">
+          <a:alpha val="80000"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Percentage of Punks in Top 60 by </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Type</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cryptopunks!$D$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of punk type in top sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EA34B0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3888888888888888E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-0415-4505-9CF8-5F1822558C11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1111111111111112E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0415-4505-9CF8-5F1822558C11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3888888888888888E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0415-4505-9CF8-5F1822558C11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.3333333333333332E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0415-4505-9CF8-5F1822558C11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>cryptopunks!$A$75:$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Alien</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ape</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Zombie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cryptopunks!$D$75:$D$79</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23863636363636365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3182646133465806E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8229166666666667E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0415-4505-9CF8-5F1822558C11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cryptopunks!$E$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>cryptopunks!$A$75:$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Alien</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ape</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Zombie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cryptopunks!$E$75:$E$79</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0415-4505-9CF8-5F1822558C11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cryptopunks!$F$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>cryptopunks!$A$75:$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Alien</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ape</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Zombie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cryptopunks!$F$75:$F$79</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0415-4505-9CF8-5F1822558C11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cryptopunks!$G$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>cryptopunks!$A$75:$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Alien</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ape</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Zombie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cryptopunks!$G$75:$G$79</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0415-4505-9CF8-5F1822558C11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cryptopunks!$H$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of punk type not in top sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F496D7"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>cryptopunks!$A$75:$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Alien</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ape</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Zombie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cryptopunks!$H$75:$H$79</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76136363636363635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99768173538665339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99817708333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0415-4505-9CF8-5F1822558C11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1139390720"/>
+        <c:axId val="1139405696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1139390720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1139405696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1139405696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1139390720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
@@ -4842,7 +6063,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5046,23 +6267,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5167,8 +6387,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5300,20 +6520,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5347,7 +6566,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5551,23 +6770,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5672,8 +6890,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5805,20 +7023,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5955,8 +7172,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="219364" y="2282799"/>
-          <a:ext cx="1604818" cy="1088572"/>
+          <a:off x="219364" y="2288242"/>
+          <a:ext cx="1604818" cy="1104900"/>
           <a:chOff x="6021294" y="11586883"/>
           <a:chExt cx="1837850" cy="1234004"/>
         </a:xfrm>
@@ -6115,8 +7332,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2401511" y="2275673"/>
-          <a:ext cx="1605600" cy="1089008"/>
+          <a:off x="2401511" y="2281116"/>
+          <a:ext cx="1605600" cy="1105336"/>
           <a:chOff x="6021297" y="11586883"/>
           <a:chExt cx="1763059" cy="1135530"/>
         </a:xfrm>
@@ -6243,82 +7460,6 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>219728</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>10525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4020657</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>5763</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0AE41E-78E7-4D79-B183-EB59B70DD0B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>219392</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>10153</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4020992</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>7485</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="42" name="Chart 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6436C39-2B41-4F2E-8069-E1B52894503B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -6489,8 +7630,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4584440" y="2286872"/>
-          <a:ext cx="1604819" cy="1089008"/>
+          <a:off x="4584440" y="2292315"/>
+          <a:ext cx="1604819" cy="1105336"/>
           <a:chOff x="3635460" y="2163074"/>
           <a:chExt cx="1604819" cy="1121024"/>
         </a:xfrm>
@@ -6687,8 +7828,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23091" y="680357"/>
-          <a:ext cx="8597435" cy="1397000"/>
+          <a:off x="23091" y="679450"/>
+          <a:ext cx="8598342" cy="1397000"/>
           <a:chOff x="23091" y="679824"/>
           <a:chExt cx="8597968" cy="1397000"/>
         </a:xfrm>
@@ -6707,7 +7848,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6909,8 +8050,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6766588" y="2277635"/>
-          <a:ext cx="1604819" cy="1090337"/>
+          <a:off x="6766588" y="2283078"/>
+          <a:ext cx="1604819" cy="1106665"/>
           <a:chOff x="3635460" y="2163074"/>
           <a:chExt cx="1604819" cy="1122368"/>
         </a:xfrm>
@@ -7249,123 +8390,118 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>208643</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4010243</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>157685</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="Chart 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4932387-851E-46BF-9156-47745397353E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>216137</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4017737</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180167</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="30" name="Chart 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F180D839-E596-4A41-BDCD-DE3E0437E4E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.08346</cdr:x>
-      <cdr:y>0.18357</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.19158</cdr:x>
-      <cdr:y>0.86497</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4527BD47-6DB3-9110-7B19-28A1229E246D}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="349250" y="468313"/>
-          <a:ext cx="452438" cy="1738312"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.08251</cdr:x>
-      <cdr:y>0.18202</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.19347</cdr:x>
-      <cdr:y>0.86497</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7466C276-E3B4-CDD1-5058-DBACE7EA3C34}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="345281" y="464344"/>
-          <a:ext cx="464344" cy="1742281"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5B41EA7-B9F1-45BF-AC06-727F739B53F6}" name="Table1" displayName="Table1" ref="A1:K53" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5B41EA7-B9F1-45BF-AC06-727F739B53F6}" name="Table1" displayName="Table1" ref="A1:K53" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:K53" xr:uid="{D5B41EA7-B9F1-45BF-AC06-727F739B53F6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K53">
     <sortCondition ref="A1:A61"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{38057EE2-F64A-462F-92E7-FEC2B4F7B8CE}" name="position" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{7B33F43B-E4A0-4577-963E-E7784F5F5010}" name="id" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{4F2F7C75-F344-41BC-A043-C01E3FBCA24D}" name="price_ether" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{E441128D-BBAF-4AFC-BAD7-C05638BEAB26}" name="price_usd" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{26808E42-36A9-41ED-A41F-EFE59547DDF6}" name="Column1" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{2AA96931-7E5F-465F-A96D-8AFCD6B9918D}" name="Column2" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{F002574D-FACF-48C7-8431-D7C24D174487}" name="Column3" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{DBBFAF1B-834A-4E4F-BB32-342BCE3546B1}" name="date_sold" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{38057EE2-F64A-462F-92E7-FEC2B4F7B8CE}" name="position" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{7B33F43B-E4A0-4577-963E-E7784F5F5010}" name="id" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{4F2F7C75-F344-41BC-A043-C01E3FBCA24D}" name="price_ether" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{E441128D-BBAF-4AFC-BAD7-C05638BEAB26}" name="price_usd" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{26808E42-36A9-41ED-A41F-EFE59547DDF6}" name="Column1" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{2AA96931-7E5F-465F-A96D-8AFCD6B9918D}" name="Column2" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{F002574D-FACF-48C7-8431-D7C24D174487}" name="Column3" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{DBBFAF1B-834A-4E4F-BB32-342BCE3546B1}" name="date_sold" dataDxfId="5">
       <calculatedColumnFormula>CONCATENATE(E2, " ", F2, " ", G2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5AEA87E2-6AC8-404A-863B-800A0A13A691}" name="attributes_count" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{9B207B84-3DDB-489A-8C36-B95FEDCCC82F}" name="specific_attribute" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{94169409-101E-443D-A1F9-3E45E94A5462}" name="punk_type" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{5AEA87E2-6AC8-404A-863B-800A0A13A691}" name="attributes_count" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{9B207B84-3DDB-489A-8C36-B95FEDCCC82F}" name="specific_attribute" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{94169409-101E-443D-A1F9-3E45E94A5462}" name="punk_type" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C6ECD9A-4EBB-4A32-9145-B733F62E8B98}" name="Table2" displayName="Table2" ref="A1:E101" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0C6ECD9A-4EBB-4A32-9145-B733F62E8B98}" name="Table2" displayName="Table2" ref="A1:E101" totalsRowShown="0" headerRowDxfId="1">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E101">
     <sortCondition ref="B1:B101"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CF5C5033-1551-4011-8DCC-42EA683693B9}" name="attribute"/>
-    <tableColumn id="2" xr3:uid="{E5050196-B703-4DDE-9C04-96F357B01E6D}" name="number_of_punks_with_attribute" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E5050196-B703-4DDE-9C04-96F357B01E6D}" name="number_of_punks_with_attribute" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{E8D5B3EC-17CA-475A-8372-C6E0FE4EC7CA}" name="availability"/>
     <tableColumn id="4" xr3:uid="{EF888C13-34D9-48BC-9E84-FA4AE88231D2}" name="average_sale (Ξ)"/>
     <tableColumn id="7" xr3:uid="{B8A87290-F75D-4E1A-95AD-CE0367DBEA50}" name="cheapest (Ξ)"/>
@@ -7686,7 +8822,7 @@
       <c r="B2" t="s">
         <v>343</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>346</v>
       </c>
     </row>
@@ -7707,8 +8843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6946B6DC-972A-4A33-9276-1E5BC691C458}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7718,7 +8854,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>341</v>
       </c>
     </row>
@@ -7734,8 +8870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7745,45 +8881,45 @@
     <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.1796875" customWidth="1"/>
     <col min="5" max="7" width="10.54296875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="17" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9670,117 +10806,169 @@
       <c r="C63" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="9" t="s">
         <v>290</v>
       </c>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="6" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="11" t="s">
         <v>202</v>
       </c>
       <c r="B64" s="2">
-        <f xml:space="preserve"> COUNTIF($I$2:$I$61, A64)</f>
+        <f t="shared" ref="B64:B69" si="2" xml:space="preserve"> COUNTIF($I$2:$I$61, A64)</f>
         <v>2</v>
       </c>
       <c r="C64" s="2">
         <f>VLOOKUP(A64, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>11</v>
       </c>
-      <c r="D64" s="11">
-        <f>B64/C64</f>
+      <c r="D64" s="21">
+        <f t="shared" ref="D64:D69" si="3">B64/C64</f>
         <v>0.18181818181818182</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="23">
+        <f>100% - D64</f>
+        <v>0.81818181818181812</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>196</v>
       </c>
       <c r="B65" s="2">
-        <f xml:space="preserve"> COUNTIF($I$2:$I$61, A65)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C65" s="2">
         <f>VLOOKUP(A65, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>8</v>
       </c>
-      <c r="D65" s="11">
-        <f>B65/C65</f>
+      <c r="D65" s="21">
+        <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="13" t="s">
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="23">
+        <f t="shared" ref="H65:H70" si="4">100% - D65</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="11" t="s">
         <v>197</v>
       </c>
       <c r="B66" s="2">
-        <f xml:space="preserve"> COUNTIF($I$2:$I$61, A66)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C66" s="2">
         <f>VLOOKUP(A66, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>333</v>
       </c>
-      <c r="D66" s="11">
-        <f>B66/C66</f>
+      <c r="D66" s="21">
+        <f t="shared" si="3"/>
         <v>2.7027027027027029E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="13" t="s">
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="23">
+        <f t="shared" si="4"/>
+        <v>0.97297297297297303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="11" t="s">
         <v>198</v>
       </c>
       <c r="B67" s="2">
-        <f xml:space="preserve"> COUNTIF($I$2:$I$61, A67)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C67" s="2">
         <f>VLOOKUP(A67, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>3560</v>
       </c>
-      <c r="D67" s="11">
-        <f>B67/C67</f>
+      <c r="D67" s="21">
+        <f t="shared" si="3"/>
         <v>5.3370786516853935E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="13" t="s">
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="23">
+        <f t="shared" si="4"/>
+        <v>0.99466292134831458</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="11" t="s">
         <v>199</v>
       </c>
       <c r="B68" s="2">
-        <f xml:space="preserve"> COUNTIF($I$2:$I$61, A68)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C68" s="2">
         <f>VLOOKUP(A68, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>4501</v>
       </c>
-      <c r="D68" s="11">
-        <f>B68/C68</f>
+      <c r="D68" s="21">
+        <f t="shared" si="3"/>
         <v>4.2212841590757609E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="14" t="s">
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="23">
+        <f t="shared" si="4"/>
+        <v>0.99577871584092426</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="12" t="s">
         <v>200</v>
       </c>
       <c r="B69" s="4">
-        <f xml:space="preserve"> COUNTIF($I$2:$I$61, A69)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C69" s="4">
         <f>VLOOKUP(A69, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>1420</v>
       </c>
-      <c r="D69" s="12">
-        <f>B69/C69</f>
+      <c r="D69" s="24">
+        <f t="shared" si="3"/>
         <v>1.4084507042253522E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="15"/>
-    </row>
-    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="25">
+        <f t="shared" si="4"/>
+        <v>0.99859154929577465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="13"/>
+      <c r="H70" s="20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>286</v>
       </c>
@@ -9790,11 +10978,17 @@
       <c r="C74" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="28" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>101</v>
       </c>
@@ -9806,13 +11000,20 @@
         <f>VLOOKUP(A75, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>9</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="21">
         <f>B75/C75</f>
         <v>0.44444444444444442</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="23">
+        <f>100% - D75</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B76" s="2">
@@ -9823,12 +11024,19 @@
         <f>VLOOKUP(A76, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>24</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="21">
         <f>B76/C76</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="23">
+        <f t="shared" ref="H76:H79" si="5">100% - D76</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>103</v>
       </c>
@@ -9840,57 +11048,78 @@
         <f>VLOOKUP(A77, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>88</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D77" s="21">
         <f>B77/C77</f>
         <v>0.23863636363636365</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="23">
+        <f t="shared" si="5"/>
+        <v>0.76136363636363635</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B78" s="2">
-        <f t="shared" ref="B76:B79" si="2">COUNTIF($K$2:$K$61, A78)</f>
+        <f t="shared" ref="B78:B79" si="6">COUNTIF($K$2:$K$61, A78)</f>
         <v>14</v>
       </c>
       <c r="C78" s="2">
         <f>VLOOKUP(A78, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>6039</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="21">
         <f>B78/C78</f>
         <v>2.3182646133465806E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="23">
+        <f t="shared" si="5"/>
+        <v>0.99768173538665339</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B79" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C79" s="4">
         <f>VLOOKUP(A79, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>3840</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="24">
         <f>B79/C79</f>
         <v>1.8229166666666667E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="16" t="s">
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="25">
+        <f>100% - D79</f>
+        <v>0.99817708333333333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="B80" s="17">
+      <c r="B80" s="27">
         <f>SUM(B75:B79)</f>
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B53">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9920,19 +11149,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>345</v>
       </c>
     </row>

--- a/Analysis_Worksheets/cryptopunks.xlsx
+++ b/Analysis_Worksheets/cryptopunks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Analysis_of_Cryptopunks_Top_60\Analysis_Worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C77206-52D8-4C34-BDB2-A0BAEC55CCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56AE06E-98FF-4170-BC2E-B1C4AA13863C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -892,16 +892,10 @@
     <t>Column3</t>
   </si>
   <si>
-    <t>Occurencies</t>
-  </si>
-  <si>
     <t>Unique Attribute Counts</t>
   </si>
   <si>
     <t>Unique Punk Types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rarity </t>
   </si>
   <si>
     <t>Percentage of punk type in top sales</t>
@@ -1106,12 +1100,18 @@
   <si>
     <t>Percentage of punk type not in top sales</t>
   </si>
+  <si>
+    <t>Total Number Available</t>
+  </si>
+  <si>
+    <t>Occurrences in Highest Sales</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1249,11 +1249,17 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="MS Reference Sans Serif"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1431,6 +1437,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1804,7 +1816,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1823,9 +1835,6 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1838,6 +1847,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="21" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2206,6 +2220,7 @@
   <colors>
     <mruColors>
       <color rgb="FF638596"/>
+      <color rgb="FFFBD9F0"/>
       <color rgb="FFF496D7"/>
       <color rgb="FFEA34B0"/>
       <color rgb="FFDBB180"/>
@@ -2258,7 +2273,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Occurencies of Punk Type in Top 60</a:t>
+              <a:t>Occurences of Punk Type in Top 60</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -2302,10 +2317,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.7684681002544586E-2"/>
-          <c:y val="0.25894779155110575"/>
-          <c:w val="0.86529012353817558"/>
-          <c:h val="0.53518122250168809"/>
+          <c:x val="6.4730132142192448E-2"/>
+          <c:y val="0.2261602915591559"/>
+          <c:w val="0.86233552019356041"/>
+          <c:h val="0.64447281119077715"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2321,7 +2336,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Occurencies</c:v>
+                  <c:v>Occurrences in Highest Sales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2489,7 +2504,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2614,7 +2632,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Occurencies of Attribute Count in Top 60</a:t>
+              <a:t>Occurences of Attribute Count in Top 60</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2682,7 +2700,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Occurencies</c:v>
+                  <c:v>Occurrences in Highest Sales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2860,8 +2878,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2976,7 +2994,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Percentage of Punks in Top 60 by </a:t>
+              <a:t>Percentage of Total Number of Punks with Attribute in Top 60 by </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
@@ -3020,10 +3038,20 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3539562289562284E-2"/>
+          <c:y val="0.19795165955834446"/>
+          <c:w val="0.86971275252525249"/>
+          <c:h val="0.64247242330230958"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3049,196 +3077,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.1111111111111117E-2"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-4F9B-4AF5-82B9-CC9D7C62F21A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.9444444444444445E-2"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-4F9B-4AF5-82B9-CC9D7C62F21A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.3333333333333332E-3"/>
-                  <c:y val="8.4875562720133283E-17"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-4F9B-4AF5-82B9-CC9D7C62F21A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.5555555555555558E-3"/>
-                  <c:y val="-8.4875562720133283E-17"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-4F9B-4AF5-82B9-CC9D7C62F21A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.1111111111111212E-2"/>
-                  <c:y val="8.4875562720133283E-17"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-4F9B-4AF5-82B9-CC9D7C62F21A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.3333333333333332E-3"/>
-                  <c:y val="-8.4875562720133283E-17"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-4F9B-4AF5-82B9-CC9D7C62F21A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>cryptopunks!$A$64:$A$69</c:f>
@@ -3319,64 +3157,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>cryptopunks!$A$64:$A$69</c:f>
@@ -3435,64 +3215,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>cryptopunks!$A$64:$A$69</c:f>
@@ -3551,64 +3273,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>cryptopunks!$A$64:$A$69</c:f>
@@ -3662,7 +3326,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="F496D7"/>
+              <a:srgbClr val="FBD9F0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3670,64 +3334,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>cryptopunks!$A$64:$A$69</c:f>
@@ -3788,16 +3394,15 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:overlap val="100"/>
         <c:axId val="1215215040"/>
         <c:axId val="662734240"/>
       </c:barChart>
@@ -3833,6 +3438,51 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662734240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="662734240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -3845,27 +3495,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662734240"/>
+        <c:crossAx val="1215215040"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="662734240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1215215040"/>
-        <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -3878,6 +3509,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4546808114647315E-2"/>
+          <c:y val="0.90333563139147421"/>
+          <c:w val="0.88477107761027363"/>
+          <c:h val="9.050074894719834E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3894,8 +3535,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3988,7 +3629,23 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Percentage of Punks in Top 60 by </a:t>
+              <a:t>Percentage of Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Number of Punks with Attribute</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> in Top 60 by </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
@@ -4038,7 +3695,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4064,152 +3721,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.3888888888888888E-2"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-0415-4505-9CF8-5F1822558C11}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.1111111111111112E-2"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-0415-4505-9CF8-5F1822558C11}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.3888888888888888E-2"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-0415-4505-9CF8-5F1822558C11}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.3333333333333332E-3"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0415-4505-9CF8-5F1822558C11}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>cryptopunks!$A$75:$A$79</c:f>
@@ -4284,64 +3795,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>cryptopunks!$A$75:$A$79</c:f>
@@ -4397,64 +3850,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>cryptopunks!$A$75:$A$79</c:f>
@@ -4510,64 +3905,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>cryptopunks!$A$75:$A$79</c:f>
@@ -4618,7 +3955,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="F496D7"/>
+              <a:srgbClr val="FBD9F0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4626,64 +3963,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>cryptopunks!$A$75:$A$79</c:f>
@@ -4738,16 +4017,15 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:overlap val="100"/>
         <c:axId val="1139390720"/>
         <c:axId val="1139405696"/>
       </c:barChart>
@@ -4783,8 +4061,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4807,12 +4085,39 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1139390720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -4845,8 +4150,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -7073,15 +6378,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4581071</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2548</xdr:rowOff>
+      <xdr:colOff>229841</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>110978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8373421</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>178377</xdr:rowOff>
+      <xdr:colOff>4528241</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>168063</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7103,44 +6408,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4577195</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>11546</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>8367995</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>2964</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A51CCD-102D-4388-98E1-BFB81694826B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7237,6 +6504,8 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -7289,8 +6558,8 @@
                 <a:solidFill>
                   <a:srgbClr val="EA34B0"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
               <a:t>52</a:t>
@@ -7299,162 +6568,8 @@
               <a:solidFill>
                 <a:srgbClr val="EA34B0"/>
               </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2401511</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7816</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4007111</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>8252</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="Group 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E08E729-353C-4D3B-AE5E-FB2B924D127C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2401511" y="2281116"/>
-          <a:ext cx="1605600" cy="1105336"/>
-          <a:chOff x="6021297" y="11586883"/>
-          <a:chExt cx="1763059" cy="1135530"/>
-        </a:xfrm>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
-            <a:srgbClr val="638596">
-              <a:alpha val="80000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="Rectangle 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1913F45-C399-620A-EDC5-CA96AAF4210D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6021297" y="11586883"/>
-            <a:ext cx="1763059" cy="1135530"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="cryptopunks!$D$2">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="TextBox 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7370BA1-81EA-FFC6-B49C-E4284199C9C3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6041069" y="11607859"/>
-            <a:ext cx="1680096" cy="655833"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:grpFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:fld id="{38E5988A-22C5-4ACF-B834-55E7F4967A0B}" type="TxLink">
-              <a:rPr lang="en-US" sz="3000" b="1" i="0" u="none" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="EA34B0"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:rPr>
-              <a:pPr algn="ctr"/>
-              <a:t>$23.7M</a:t>
-            </a:fld>
-            <a:endParaRPr lang="en-US" sz="3000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="EA34B0"/>
-              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -7521,10 +6636,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1050" b="1">
+            <a:rPr lang="en-US" sz="900" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>Unique Punk Sales</a:t>
           </a:r>
@@ -7536,86 +6653,254 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2441370</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>176957</xdr:rowOff>
+      <xdr:colOff>2909194</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3904095</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180687</xdr:rowOff>
+      <xdr:colOff>4514794</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8252</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="TextBox 55">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="Group 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669ACE6A-81FA-4F28-8032-B02E6585AAE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9616D4-D947-2EA1-6C6F-7EDCEE23E67D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2441370" y="2843957"/>
-          <a:ext cx="1462725" cy="194230"/>
+          <a:off x="2909194" y="2281116"/>
+          <a:ext cx="1605600" cy="1105336"/>
+          <a:chOff x="2990012" y="2282271"/>
+          <a:chExt cx="1605600" cy="1108799"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1050" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Highest Price</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="18" name="Group 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E08E729-353C-4D3B-AE5E-FB2B924D127C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2990012" y="2282271"/>
+            <a:ext cx="1605600" cy="1108799"/>
+            <a:chOff x="6021297" y="11586883"/>
+            <a:chExt cx="1763059" cy="1135530"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
+              <a:srgbClr val="638596">
+                <a:alpha val="80000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="Rectangle 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1913F45-C399-620A-EDC5-CA96AAF4210D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6021297" y="11586883"/>
+              <a:ext cx="1763059" cy="1135530"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="cryptopunks!$D$2">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="TextBox 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7370BA1-81EA-FFC6-B49C-E4284199C9C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6041069" y="11607859"/>
+              <a:ext cx="1680096" cy="655833"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:grpFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:fld id="{38E5988A-22C5-4ACF-B834-55E7F4967A0B}" type="TxLink">
+                <a:rPr lang="en-US" sz="3000" b="1" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:srgbClr val="EA34B0"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:rPr>
+                <a:pPr algn="ctr"/>
+                <a:t>$23.7M</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="3000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="EA34B0"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="TextBox 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669ACE6A-81FA-4F28-8032-B02E6585AAE8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3064824" y="2832412"/>
+            <a:ext cx="1462725" cy="188457"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Highest Price</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4584440</xdr:colOff>
+      <xdr:colOff>5599806</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19015</xdr:rowOff>
+      <xdr:rowOff>19014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6189259</xdr:colOff>
+      <xdr:colOff>7204625</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>19451</xdr:rowOff>
+      <xdr:rowOff>21806</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7630,10 +6915,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4584440" y="2292315"/>
-          <a:ext cx="1604819" cy="1105336"/>
+          <a:off x="5599806" y="2292314"/>
+          <a:ext cx="1604819" cy="1107692"/>
           <a:chOff x="3635460" y="2163074"/>
-          <a:chExt cx="1604819" cy="1121024"/>
+          <a:chExt cx="1604819" cy="1123395"/>
         </a:xfrm>
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -7691,7 +6976,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -7743,6 +7031,8 @@
                 <a:solidFill>
                   <a:srgbClr val="EA34B0"/>
                 </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:t>Alien</a:t>
             </a:r>
@@ -7762,8 +7052,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3746160" y="2678289"/>
-            <a:ext cx="1350819" cy="477440"/>
+            <a:off x="3741563" y="2670228"/>
+            <a:ext cx="1350819" cy="616241"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7793,8 +7083,11 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="en-US" sz="1050" b="1"/>
-              <a:t>Punk Type with the Highest Price</a:t>
+              <a:rPr lang="en-US" sz="900" b="1">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Punk Type with the Highest Percentage</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -7805,13 +7098,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>23091</xdr:colOff>
+      <xdr:colOff>23092</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>29883</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>10067636</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1397000</xdr:rowOff>
     </xdr:to>
@@ -7828,8 +7121,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23091" y="679450"/>
-          <a:ext cx="8598342" cy="1397000"/>
+          <a:off x="23092" y="679450"/>
+          <a:ext cx="10044544" cy="1397000"/>
           <a:chOff x="23091" y="679824"/>
           <a:chExt cx="8597968" cy="1397000"/>
         </a:xfrm>
@@ -7848,7 +7141,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7921,8 +7214,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2150993" y="849678"/>
-            <a:ext cx="6338047" cy="1072932"/>
+            <a:off x="2150994" y="849678"/>
+            <a:ext cx="6311941" cy="1030873"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7933,6 +7226,13 @@
           <a:ln w="9525" cmpd="sng">
             <a:noFill/>
           </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
+              <a:srgbClr val="638596">
+                <a:alpha val="80000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="0">
@@ -7954,14 +7254,23 @@
           <a:p>
             <a:pPr algn="just"/>
             <a:r>
-              <a:rPr lang="en-US" sz="1200"/>
+              <a:rPr lang="en-US" sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>An NFT Collection launched in 2017, Cryptopunks are credited with starting</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1200" baseline="0"/>
-              <a:t> the NFT Craze of 2021. There are 10,000 CryptoPunks in general and are classified based on punk types: Ape, Alien, Female, Male and Zombie; Attributes they possess and Attribute Counts . This project was carried out to analyse the trend of the percentage of the punk types and attribute counts according to their rarity in the top sales.</a:t>
+              <a:rPr lang="en-US" sz="1200" baseline="0">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> the NFT Craze of 2021. There are 10,000 CryptoPunks in general and are classified based on punk types: Ape, Alien, Female, Male and Zombie; Attributes they possess and Attribute Counts . This project was carried out to analyse the trend of the percentage of the punk types and attribute counts according to their rarity (the number of punks with the attribute) in the top sales.</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1200"/>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -8027,15 +7336,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6766588</xdr:colOff>
+      <xdr:colOff>8289636</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9778</xdr:rowOff>
+      <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8371407</xdr:colOff>
+      <xdr:colOff>9894455</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>11543</xdr:rowOff>
+      <xdr:rowOff>92621</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8050,10 +7359,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6766588" y="2283078"/>
-          <a:ext cx="1604819" cy="1106665"/>
+          <a:off x="8289636" y="2331027"/>
+          <a:ext cx="1604819" cy="1139794"/>
           <a:chOff x="3635460" y="2163074"/>
-          <a:chExt cx="1604819" cy="1122368"/>
+          <a:chExt cx="1604819" cy="1156323"/>
         </a:xfrm>
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -8111,7 +7420,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -8163,8 +7475,10 @@
                 <a:solidFill>
                   <a:srgbClr val="EA34B0"/>
                 </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>1 </a:t>
+              <a:t>6 </a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -8182,13 +7496,13 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3657599" y="2654941"/>
+            <a:off x="3657599" y="2688896"/>
             <a:ext cx="1523999" cy="630501"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:grpFill/>
+          <a:noFill/>
           <a:ln w="9525" cmpd="sng">
             <a:noFill/>
           </a:ln>
@@ -8213,17 +7527,23 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="en-US" sz="1050" b="1"/>
+              <a:rPr lang="en-US" sz="900" b="1">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Attribute</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1050" b="1" baseline="0"/>
-              <a:t> Count of Cryptop</a:t>
+              <a:rPr lang="en-US" sz="900" b="1" baseline="0">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Count with Highest Percentage</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1050" b="1"/>
-              <a:t>unk with Highest Price</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -8233,15 +7553,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1773638</xdr:colOff>
+      <xdr:colOff>2564501</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>487026</xdr:rowOff>
+      <xdr:rowOff>475481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6804791</xdr:colOff>
+      <xdr:colOff>7595654</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>532745</xdr:rowOff>
+      <xdr:rowOff>521200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8256,7 +7576,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1773638" y="487026"/>
+          <a:off x="2564501" y="475481"/>
           <a:ext cx="5031153" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8329,79 +7649,53 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>5609361</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9907761</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>160203</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle 21">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD994FF9-B31D-6360-6AF7-6433EC515980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A51CCD-102D-4388-98E1-BFB81694826B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25400" y="50800"/>
-          <a:ext cx="8647723" cy="9194149"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>208643</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:colOff>5615555</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4010243</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>157685</xdr:rowOff>
+      <xdr:colOff>9913955</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66217</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8431,15 +7725,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>216137</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>3550</xdr:rowOff>
+      <xdr:colOff>224886</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4017737</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180167</xdr:rowOff>
+      <xdr:colOff>4523286</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>75298</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8464,6 +7758,106 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4607700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>6850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFAF8BE3-BD7B-9D4F-1D59-787E7FF5ADBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="3587750"/>
+          <a:ext cx="4417200" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5584825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>44449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>10002025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F1F494-E057-9F3E-AE49-306E9D01ED45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5584825" y="3600449"/>
+          <a:ext cx="4417200" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8815,23 +8209,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>346</v>
+        <v>341</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -8841,24 +8235,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6946B6DC-972A-4A33-9276-1E5BC691C458}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:A40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="123" customWidth="1"/>
+    <col min="1" max="1" width="145.08984375" style="29" customWidth="1"/>
     <col min="2" max="2" width="50.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="111" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="1:2" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="111" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="30"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="30"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="30"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="30"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="30"/>
+    </row>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -8870,8 +8281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8934,7 +8345,7 @@
         <v>206</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -8970,7 +8381,7 @@
         <v>207</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
@@ -9006,7 +8417,7 @@
         <v>207</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
@@ -9042,7 +8453,7 @@
         <v>208</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
@@ -9078,7 +8489,7 @@
         <v>209</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
@@ -9114,7 +8525,7 @@
         <v>209</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -9150,7 +8561,7 @@
         <v>210</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>8</v>
@@ -9186,7 +8597,7 @@
         <v>211</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -9222,7 +8633,7 @@
         <v>105</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
@@ -9258,7 +8669,7 @@
         <v>105</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -9294,7 +8705,7 @@
         <v>204</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -9330,7 +8741,7 @@
         <v>212</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
@@ -9366,7 +8777,7 @@
         <v>213</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>27</v>
@@ -9402,7 +8813,7 @@
         <v>214</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>29</v>
@@ -9438,7 +8849,7 @@
         <v>215</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>27</v>
@@ -9474,7 +8885,7 @@
         <v>216</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -9510,7 +8921,7 @@
         <v>217</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>8</v>
@@ -9546,7 +8957,7 @@
         <v>104</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>36</v>
@@ -9582,7 +8993,7 @@
         <v>218</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>8</v>
@@ -9618,7 +9029,7 @@
         <v>219</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>1</v>
@@ -9654,7 +9065,7 @@
         <v>220</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>8</v>
@@ -9690,7 +9101,7 @@
         <v>221</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>29</v>
@@ -9726,7 +9137,7 @@
         <v>222</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>27</v>
@@ -9762,7 +9173,7 @@
         <v>223</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>1</v>
@@ -9798,7 +9209,7 @@
         <v>224</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>8</v>
@@ -9834,7 +9245,7 @@
         <v>225</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>4</v>
@@ -9870,7 +9281,7 @@
         <v>225</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>54</v>
@@ -9906,7 +9317,7 @@
         <v>225</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
@@ -9942,7 +9353,7 @@
         <v>225</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>58</v>
@@ -9978,7 +9389,7 @@
         <v>225</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>60</v>
@@ -10014,7 +9425,7 @@
         <v>226</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -10050,7 +9461,7 @@
         <v>227</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>29</v>
@@ -10086,7 +9497,7 @@
         <v>227</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
@@ -10122,7 +9533,7 @@
         <v>228</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>29</v>
@@ -10158,7 +9569,7 @@
         <v>229</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>8</v>
@@ -10194,7 +9605,7 @@
         <v>229</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>60</v>
@@ -10230,7 +9641,7 @@
         <v>229</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>27</v>
@@ -10266,7 +9677,7 @@
         <v>229</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>8</v>
@@ -10302,7 +9713,7 @@
         <v>229</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>60</v>
@@ -10338,7 +9749,7 @@
         <v>229</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>29</v>
@@ -10374,7 +9785,7 @@
         <v>230</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>17</v>
@@ -10410,7 +9821,7 @@
         <v>231</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>36</v>
@@ -10446,7 +9857,7 @@
         <v>109</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -10482,7 +9893,7 @@
         <v>232</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>8</v>
@@ -10518,7 +9929,7 @@
         <v>233</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>58</v>
@@ -10554,7 +9965,7 @@
         <v>233</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>20</v>
@@ -10590,7 +10001,7 @@
         <v>234</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>13</v>
@@ -10626,7 +10037,7 @@
         <v>203</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>36</v>
@@ -10662,7 +10073,7 @@
         <v>235</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
@@ -10698,7 +10109,7 @@
         <v>236</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>54</v>
@@ -10734,7 +10145,7 @@
         <v>237</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>29</v>
@@ -10770,7 +10181,7 @@
         <v>237</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>20</v>
@@ -10798,22 +10209,22 @@
     <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>284</v>
+        <v>349</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>287</v>
+        <v>348</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
+        <v>288</v>
+      </c>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
       <c r="H63" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
@@ -10828,14 +10239,14 @@
         <f>VLOOKUP(A64, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>11</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="20">
         <f t="shared" ref="D64:D69" si="3">B64/C64</f>
         <v>0.18181818181818182</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="23">
+      <c r="H64" s="22">
         <f>100% - D64</f>
         <v>0.81818181818181812</v>
       </c>
@@ -10852,14 +10263,14 @@
         <f>VLOOKUP(A65, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>8</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="20">
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="23">
+      <c r="H65" s="22">
         <f t="shared" ref="H65:H70" si="4">100% - D65</f>
         <v>0.875</v>
       </c>
@@ -10876,14 +10287,14 @@
         <f>VLOOKUP(A66, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>333</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="20">
         <f t="shared" si="3"/>
         <v>2.7027027027027029E-2</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="23">
+      <c r="H66" s="22">
         <f t="shared" si="4"/>
         <v>0.97297297297297303</v>
       </c>
@@ -10900,14 +10311,14 @@
         <f>VLOOKUP(A67, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>3560</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="20">
         <f t="shared" si="3"/>
         <v>5.3370786516853935E-3</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="23">
+      <c r="H67" s="22">
         <f t="shared" si="4"/>
         <v>0.99466292134831458</v>
       </c>
@@ -10924,14 +10335,14 @@
         <f>VLOOKUP(A68, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>4501</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="20">
         <f t="shared" si="3"/>
         <v>4.2212841590757609E-3</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="23">
+      <c r="H68" s="22">
         <f t="shared" si="4"/>
         <v>0.99577871584092426</v>
       </c>
@@ -10948,21 +10359,21 @@
         <f>VLOOKUP(A69, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>1420</v>
       </c>
-      <c r="D69" s="24">
+      <c r="D69" s="23">
         <f t="shared" si="3"/>
         <v>1.4084507042253522E-3</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="25">
+      <c r="H69" s="24">
         <f t="shared" si="4"/>
         <v>0.99859154929577465</v>
       </c>
     </row>
     <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="13"/>
-      <c r="H70" s="20">
+      <c r="H70" s="19">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10970,22 +10381,22 @@
     <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D74" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
       <c r="H74" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -11000,14 +10411,14 @@
         <f>VLOOKUP(A75, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>9</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D75" s="20">
         <f>B75/C75</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="23">
+      <c r="H75" s="22">
         <f>100% - D75</f>
         <v>0.55555555555555558</v>
       </c>
@@ -11024,15 +10435,15 @@
         <f>VLOOKUP(A76, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>24</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="20">
         <f>B76/C76</f>
         <v>0.25</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="23">
-        <f t="shared" ref="H76:H79" si="5">100% - D76</f>
+      <c r="H76" s="22">
+        <f t="shared" ref="H76:H78" si="5">100% - D76</f>
         <v>0.75</v>
       </c>
     </row>
@@ -11048,14 +10459,14 @@
         <f>VLOOKUP(A77, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>88</v>
       </c>
-      <c r="D77" s="21">
+      <c r="D77" s="20">
         <f>B77/C77</f>
         <v>0.23863636363636365</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="23">
+      <c r="H77" s="22">
         <f t="shared" si="5"/>
         <v>0.76136363636363635</v>
       </c>
@@ -11072,14 +10483,14 @@
         <f>VLOOKUP(A78, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>6039</v>
       </c>
-      <c r="D78" s="21">
+      <c r="D78" s="20">
         <f>B78/C78</f>
         <v>2.3182646133465806E-3</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="23">
+      <c r="H78" s="22">
         <f t="shared" si="5"/>
         <v>0.99768173538665339</v>
       </c>
@@ -11096,23 +10507,23 @@
         <f>VLOOKUP(A79, attributes!$A$1:$E$101, 2, FALSE)</f>
         <v>3840</v>
       </c>
-      <c r="D79" s="24">
+      <c r="D79" s="23">
         <f>B79/C79</f>
         <v>1.8229166666666667E-3</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="25">
+      <c r="H79" s="24">
         <f>100% - D79</f>
         <v>0.99817708333333333</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="B80" s="27">
+      <c r="A80" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="B80" s="26">
         <f>SUM(B75:B79)</f>
         <v>52</v>
       </c>
@@ -11133,8 +10544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA57CDC8-14C7-4CD1-A31D-3A27E9F197C3}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection sqref="A1:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11162,1707 +10573,1707 @@
         <v>100</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>13340</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="E4">
-        <v>13340</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1">
-        <v>11</v>
+        <v>3840</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>413</v>
       </c>
       <c r="D5">
-        <v>398.95</v>
+        <v>59.27</v>
       </c>
       <c r="E5">
-        <v>1500</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B6" s="1">
-        <v>24</v>
+        <v>6039</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>715</v>
       </c>
       <c r="D6">
-        <v>2600</v>
+        <v>74.33</v>
       </c>
       <c r="E6">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>80.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>196</v>
       </c>
       <c r="B7" s="1">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>331.33</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>420.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="B8" s="1">
-        <v>48</v>
+        <v>333</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>271.49</v>
       </c>
       <c r="E8">
-        <v>135</v>
+        <v>96.95</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="B9" s="1">
-        <v>54</v>
+        <v>3560</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>374</v>
       </c>
       <c r="D9">
-        <v>192.5</v>
+        <v>68.790000000000006</v>
       </c>
       <c r="E9">
-        <v>180</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="B10" s="1">
-        <v>55</v>
+        <v>4501</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>509</v>
       </c>
       <c r="D10">
-        <v>129.97999999999999</v>
+        <v>70.989999999999995</v>
       </c>
       <c r="E10">
-        <v>179</v>
+        <v>80.95</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="B11" s="1">
-        <v>68</v>
+        <v>1420</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="D11">
-        <v>117.32</v>
+        <v>68.53</v>
       </c>
       <c r="E11">
-        <v>115</v>
+        <v>84.95</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="B12" s="1">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>79.16</v>
+        <v>93.31</v>
       </c>
       <c r="E12">
-        <v>99.95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="B13" s="1">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>76.94</v>
+        <v>398.95</v>
       </c>
       <c r="E13">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="B14" s="1">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>825</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B15" s="1">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>83.46</v>
+        <v>331.33</v>
       </c>
       <c r="E15">
-        <v>130</v>
+        <v>420.69</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B16" s="1">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>11</v>
       </c>
       <c r="D16">
-        <v>82.84</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B17" s="1">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>142.38999999999999</v>
+        <v>192.5</v>
       </c>
       <c r="E17">
-        <v>154.99</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B18" s="1">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>43.43</v>
+        <v>129.97999999999999</v>
       </c>
       <c r="E18">
-        <v>87.99</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B19" s="1">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19">
-        <v>75.92</v>
+        <v>117.32</v>
       </c>
       <c r="E19">
-        <v>89.68</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B20" s="1">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>47.93</v>
+        <v>79.16</v>
       </c>
       <c r="E20">
-        <v>118.88</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B21" s="1">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>91.65</v>
+        <v>76.94</v>
       </c>
       <c r="E21">
-        <v>96.89</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B22" s="1">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>158.91999999999999</v>
+        <v>83.46</v>
       </c>
       <c r="E22">
-        <v>199</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B23" s="1">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>105.99</v>
+        <v>82.84</v>
       </c>
       <c r="E23">
-        <v>116.97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B24" s="1">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24">
-        <v>70.53</v>
+        <v>142.38999999999999</v>
       </c>
       <c r="E24">
-        <v>85</v>
+        <v>154.99</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B25" s="1">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>88.36</v>
+        <v>43.43</v>
       </c>
       <c r="E25">
-        <v>118</v>
+        <v>87.99</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B26" s="1">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>57.97</v>
+        <v>75.92</v>
       </c>
       <c r="E26">
-        <v>85</v>
+        <v>89.68</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B27" s="1">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>57.35</v>
+        <v>47.93</v>
       </c>
       <c r="E27">
-        <v>87</v>
+        <v>118.88</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B28" s="1">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C28">
         <v>13</v>
       </c>
       <c r="D28">
-        <v>68.5</v>
+        <v>91.65</v>
       </c>
       <c r="E28">
-        <v>95</v>
+        <v>96.89</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B29" s="1">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>73.87</v>
+        <v>158.91999999999999</v>
       </c>
       <c r="E29">
-        <v>94</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B30" s="1">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>67.930000000000007</v>
+        <v>105.99</v>
       </c>
       <c r="E30">
-        <v>92.87</v>
+        <v>116.97</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B31" s="1">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>57.35</v>
+        <v>70.53</v>
       </c>
       <c r="E31">
-        <v>84.99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B32" s="1">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>69.12</v>
+        <v>88.36</v>
       </c>
       <c r="E32">
-        <v>85</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B33" s="1">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>75.42</v>
+        <v>57.97</v>
       </c>
       <c r="E33">
-        <v>86.69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B34" s="1">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>45.76</v>
+        <v>57.35</v>
       </c>
       <c r="E34">
-        <v>82.95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B35" s="1">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>68.430000000000007</v>
+        <v>68.5</v>
       </c>
       <c r="E35">
-        <v>84.95</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="B36" s="1">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>93.31</v>
+        <v>73.87</v>
       </c>
       <c r="E36">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B37" s="1">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D37">
-        <v>94.95</v>
+        <v>67.930000000000007</v>
       </c>
       <c r="E37">
-        <v>94.95</v>
+        <v>92.87</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B38" s="1">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>70.39</v>
+        <v>57.35</v>
       </c>
       <c r="E38">
-        <v>90.69</v>
+        <v>84.99</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B39" s="1">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>69.08</v>
+        <v>69.12</v>
       </c>
       <c r="E39">
-        <v>84.68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B40" s="1">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D40">
-        <v>79.8</v>
+        <v>75.42</v>
       </c>
       <c r="E40">
-        <v>87.87</v>
+        <v>86.69</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B41" s="1">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D41">
-        <v>71.959999999999994</v>
+        <v>45.76</v>
       </c>
       <c r="E41">
-        <v>95</v>
+        <v>82.95</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B42" s="1">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="C42">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D42">
-        <v>67.849999999999994</v>
+        <v>68.430000000000007</v>
       </c>
       <c r="E42">
-        <v>87.99</v>
+        <v>84.95</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B43" s="1">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="C43">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D43">
-        <v>73.53</v>
+        <v>94.95</v>
       </c>
       <c r="E43">
-        <v>95</v>
+        <v>94.95</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B44" s="1">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="C44">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D44">
-        <v>83.6</v>
+        <v>70.39</v>
       </c>
       <c r="E44">
-        <v>98.69</v>
+        <v>90.69</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B45" s="1">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="C45">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D45">
-        <v>241.66</v>
+        <v>69.08</v>
       </c>
       <c r="E45">
-        <v>315</v>
+        <v>84.68</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B46" s="1">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="C46">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D46">
-        <v>61.17</v>
+        <v>79.8</v>
       </c>
       <c r="E46">
-        <v>88.95</v>
+        <v>87.87</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B47" s="1">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="C47">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D47">
-        <v>76.239999999999995</v>
+        <v>71.959999999999994</v>
       </c>
       <c r="E47">
-        <v>84.95</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B48" s="1">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="C48">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D48">
-        <v>58.82</v>
+        <v>67.849999999999994</v>
       </c>
       <c r="E48">
-        <v>82.69</v>
+        <v>87.99</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B49" s="1">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="C49">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D49">
-        <v>80.14</v>
+        <v>73.53</v>
       </c>
       <c r="E49">
-        <v>88.85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B50" s="1">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D50">
-        <v>52.22</v>
+        <v>83.6</v>
       </c>
       <c r="E50">
-        <v>84.5</v>
+        <v>98.69</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B51" s="1">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C51">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D51">
-        <v>50.95</v>
+        <v>241.66</v>
       </c>
       <c r="E51">
-        <v>82.95</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B52" s="1">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C52">
         <v>34</v>
       </c>
       <c r="D52">
-        <v>76.39</v>
+        <v>61.17</v>
       </c>
       <c r="E52">
-        <v>88.88</v>
+        <v>88.95</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B53" s="1">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C53">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D53">
-        <v>61.71</v>
+        <v>76.239999999999995</v>
       </c>
       <c r="E53">
-        <v>92.88</v>
+        <v>84.95</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B54" s="1">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C54">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D54">
-        <v>55.86</v>
+        <v>58.82</v>
       </c>
       <c r="E54">
-        <v>83.95</v>
+        <v>82.69</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B55" s="1">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="C55">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D55">
-        <v>156.78</v>
+        <v>80.14</v>
       </c>
       <c r="E55">
-        <v>149</v>
+        <v>88.85</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B56" s="1">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="C56">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D56">
-        <v>78.989999999999995</v>
+        <v>52.22</v>
       </c>
       <c r="E56">
-        <v>91.95</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B57" s="1">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C57">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D57">
-        <v>69.099999999999994</v>
+        <v>50.95</v>
       </c>
       <c r="E57">
-        <v>92</v>
+        <v>82.95</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B58" s="1">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C58">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D58">
-        <v>102.19</v>
+        <v>76.39</v>
       </c>
       <c r="E58">
-        <v>95</v>
+        <v>88.88</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B59" s="1">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="C59">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D59">
-        <v>78.39</v>
+        <v>61.71</v>
       </c>
       <c r="E59">
-        <v>84.85</v>
+        <v>92.88</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B60" s="1">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C60">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D60">
-        <v>69.17</v>
+        <v>55.86</v>
       </c>
       <c r="E60">
-        <v>90</v>
+        <v>83.95</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B61" s="1">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C61">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D61">
-        <v>61.71</v>
+        <v>156.78</v>
       </c>
       <c r="E61">
-        <v>86.69</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B62" s="1">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C62">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D62">
-        <v>67.92</v>
+        <v>78.989999999999995</v>
       </c>
       <c r="E62">
-        <v>86.69</v>
+        <v>91.95</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B63" s="1">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C63">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D63">
-        <v>53.73</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="E63">
-        <v>80.95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B64" s="1">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C64">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D64">
-        <v>85.87</v>
+        <v>102.19</v>
       </c>
       <c r="E64">
-        <v>80.95</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B65" s="1">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C65">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D65">
-        <v>64.22</v>
+        <v>78.39</v>
       </c>
       <c r="E65">
-        <v>88.85</v>
+        <v>84.85</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B66" s="1">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="C66">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D66">
-        <v>83.5</v>
+        <v>69.17</v>
       </c>
       <c r="E66">
-        <v>82.5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B67" s="1">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="C67">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D67">
-        <v>95.11</v>
+        <v>61.71</v>
       </c>
       <c r="E67">
-        <v>105</v>
+        <v>86.69</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="B68" s="1">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="C68">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D68">
-        <v>271.49</v>
+        <v>67.92</v>
       </c>
       <c r="E68">
-        <v>96.95</v>
+        <v>86.69</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B69" s="1">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="C69">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D69">
-        <v>72.150000000000006</v>
+        <v>53.73</v>
       </c>
       <c r="E69">
-        <v>87.99</v>
+        <v>80.95</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B70" s="1">
-        <v>378</v>
+        <v>303</v>
       </c>
       <c r="C70">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D70">
-        <v>74</v>
+        <v>85.87</v>
       </c>
       <c r="E70">
-        <v>89</v>
+        <v>80.95</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B71" s="1">
-        <v>382</v>
+        <v>303</v>
       </c>
       <c r="C71">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D71">
-        <v>51.04</v>
+        <v>64.22</v>
       </c>
       <c r="E71">
-        <v>81</v>
+        <v>88.85</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B72" s="1">
-        <v>384</v>
+        <v>317</v>
       </c>
       <c r="C72">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D72">
-        <v>54.07</v>
+        <v>83.5</v>
       </c>
       <c r="E72">
-        <v>84.99</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B73" s="1">
-        <v>406</v>
+        <v>332</v>
       </c>
       <c r="C73">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D73">
-        <v>55.9</v>
+        <v>95.11</v>
       </c>
       <c r="E73">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B74" s="1">
-        <v>414</v>
+        <v>351</v>
       </c>
       <c r="C74">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D74">
-        <v>78.459999999999994</v>
+        <v>72.150000000000006</v>
       </c>
       <c r="E74">
-        <v>85</v>
+        <v>87.99</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B75" s="1">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="C75">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D75">
-        <v>65.03</v>
+        <v>74</v>
       </c>
       <c r="E75">
-        <v>88.3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B76" s="1">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="C76">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D76">
-        <v>67.650000000000006</v>
+        <v>51.04</v>
       </c>
       <c r="E76">
-        <v>83.95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B77" s="1">
-        <v>441</v>
+        <v>384</v>
       </c>
       <c r="C77">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D77">
-        <v>65.510000000000005</v>
+        <v>54.07</v>
       </c>
       <c r="E77">
-        <v>82.69</v>
+        <v>84.99</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B78" s="1">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="C78">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D78">
-        <v>52.21</v>
+        <v>55.9</v>
       </c>
       <c r="E78">
-        <v>84.69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B79" s="1">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="C79">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D79">
-        <v>59.94</v>
+        <v>78.459999999999994</v>
       </c>
       <c r="E79">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B80" s="1">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="C80">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D80">
-        <v>79.27</v>
+        <v>65.03</v>
       </c>
       <c r="E80">
-        <v>82.99</v>
+        <v>88.3</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B81" s="1">
-        <v>460</v>
+        <v>429</v>
       </c>
       <c r="C81">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D81">
-        <v>58.09</v>
+        <v>67.650000000000006</v>
       </c>
       <c r="E81">
-        <v>84.99</v>
+        <v>83.95</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B82" s="1">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="C82">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D82">
-        <v>81.44</v>
+        <v>65.510000000000005</v>
       </c>
       <c r="E82">
-        <v>84.69</v>
+        <v>82.69</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B83" s="1">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="C83">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D83">
-        <v>53.55</v>
+        <v>52.21</v>
       </c>
       <c r="E83">
-        <v>84.5</v>
+        <v>84.69</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B84" s="1">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="C84">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D84">
-        <v>62.92</v>
+        <v>59.94</v>
       </c>
       <c r="E84">
-        <v>82.5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B85" s="1">
-        <v>502</v>
+        <v>447</v>
       </c>
       <c r="C85">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D85">
-        <v>73.27</v>
+        <v>79.27</v>
       </c>
       <c r="E85">
-        <v>80.95</v>
+        <v>82.99</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B86" s="1">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="C86">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D86">
-        <v>73.900000000000006</v>
+        <v>58.09</v>
       </c>
       <c r="E86">
-        <v>87.99</v>
+        <v>84.99</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B87" s="1">
-        <v>527</v>
+        <v>461</v>
       </c>
       <c r="C87">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D87">
-        <v>65</v>
+        <v>81.44</v>
       </c>
       <c r="E87">
-        <v>90.69</v>
+        <v>84.69</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B88" s="1">
-        <v>535</v>
+        <v>463</v>
       </c>
       <c r="C88">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D88">
-        <v>69.97</v>
+        <v>53.55</v>
       </c>
       <c r="E88">
-        <v>89.1</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B89" s="1">
-        <v>535</v>
+        <v>481</v>
       </c>
       <c r="C89">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D89">
-        <v>77.3</v>
+        <v>62.92</v>
       </c>
       <c r="E89">
-        <v>95.99</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B90" s="1">
-        <v>572</v>
+        <v>502</v>
       </c>
       <c r="C90">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D90">
-        <v>70.06</v>
+        <v>73.27</v>
       </c>
       <c r="E90">
-        <v>85</v>
+        <v>80.95</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B91" s="1">
-        <v>617</v>
+        <v>526</v>
       </c>
       <c r="C91">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D91">
-        <v>60.54</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="E91">
-        <v>82.69</v>
+        <v>87.99</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B92" s="1">
-        <v>644</v>
+        <v>527</v>
       </c>
       <c r="C92">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D92">
-        <v>60.86</v>
+        <v>65</v>
       </c>
       <c r="E92">
-        <v>85</v>
+        <v>90.69</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B93" s="1">
-        <v>655</v>
+        <v>535</v>
       </c>
       <c r="C93">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D93">
-        <v>51.6</v>
+        <v>69.97</v>
       </c>
       <c r="E93">
-        <v>84.5</v>
+        <v>89.1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B94" s="1">
-        <v>696</v>
+        <v>535</v>
       </c>
       <c r="C94">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D94">
-        <v>68</v>
+        <v>77.3</v>
       </c>
       <c r="E94">
-        <v>82.5</v>
+        <v>95.99</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B95" s="1">
-        <v>961</v>
+        <v>572</v>
       </c>
       <c r="C95">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="D95">
-        <v>70.7</v>
+        <v>70.06</v>
       </c>
       <c r="E95">
-        <v>87.88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B96" s="1">
-        <v>1420</v>
+        <v>617</v>
       </c>
       <c r="C96">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="D96">
-        <v>68.53</v>
+        <v>60.54</v>
       </c>
       <c r="E96">
-        <v>84.95</v>
+        <v>82.69</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B97" s="1">
-        <v>2459</v>
+        <v>644</v>
       </c>
       <c r="C97">
-        <v>268</v>
+        <v>71</v>
       </c>
       <c r="D97">
-        <v>64.45</v>
+        <v>60.86</v>
       </c>
       <c r="E97">
-        <v>84.68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B98" s="1">
-        <v>3560</v>
+        <v>655</v>
       </c>
       <c r="C98">
-        <v>374</v>
+        <v>73</v>
       </c>
       <c r="D98">
-        <v>68.790000000000006</v>
+        <v>51.6</v>
       </c>
       <c r="E98">
-        <v>81</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="B99" s="1">
-        <v>3840</v>
+        <v>696</v>
       </c>
       <c r="C99">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="D99">
-        <v>59.27</v>
+        <v>68</v>
       </c>
       <c r="E99">
-        <v>81</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B100" s="1">
-        <v>4501</v>
+        <v>961</v>
       </c>
       <c r="C100">
-        <v>509</v>
+        <v>111</v>
       </c>
       <c r="D100">
-        <v>70.989999999999995</v>
+        <v>70.7</v>
       </c>
       <c r="E100">
-        <v>80.95</v>
+        <v>87.88</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="B101" s="1">
-        <v>6039</v>
+        <v>2459</v>
       </c>
       <c r="C101">
-        <v>715</v>
+        <v>268</v>
       </c>
       <c r="D101">
-        <v>74.33</v>
+        <v>64.45</v>
       </c>
       <c r="E101">
-        <v>80.95</v>
+        <v>84.68</v>
       </c>
     </row>
   </sheetData>
